--- a/data_cn_lc.xlsx
+++ b/data_cn_lc.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DK216"/>
+  <dimension ref="A1:DR216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Company_name</t>
@@ -1002,11 +1007,46 @@
       <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>ESG_iigf</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>ESG_iigf_sf</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>ESG_syntaogf</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>ESG_susallwave</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>ESG_ccxi</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>ESG_sustainalytics</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>ESG_miotech</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>ESG_cti</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>22</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -1419,9 +1459,32 @@
         </is>
       </c>
       <c r="DK2" t="inlineStr"/>
+      <c r="DL2" t="inlineStr"/>
+      <c r="DM2" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN2" t="inlineStr"/>
+      <c r="DO2" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP2" t="inlineStr">
+        <is>
+          <t>17.08</t>
+        </is>
+      </c>
+      <c r="DQ2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DR2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>26</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -1834,9 +1897,32 @@
         </is>
       </c>
       <c r="DK3" t="inlineStr"/>
+      <c r="DL3" t="inlineStr"/>
+      <c r="DM3" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN3" t="inlineStr"/>
+      <c r="DO3" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP3" t="inlineStr">
+        <is>
+          <t>17.12</t>
+        </is>
+      </c>
+      <c r="DQ3" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DR3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>29</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -2253,9 +2339,40 @@
           <t>B+</t>
         </is>
       </c>
+      <c r="DL4" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="DM4" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="DN4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DO4" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DP4" t="inlineStr"/>
+      <c r="DQ4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DR4" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>44</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -2672,9 +2789,28 @@
           <t>C+</t>
         </is>
       </c>
+      <c r="DL5" t="inlineStr"/>
+      <c r="DM5" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="DN5" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DO5" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP5" t="inlineStr"/>
+      <c r="DQ5" t="inlineStr"/>
+      <c r="DR5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>51</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -3087,9 +3223,16 @@
         </is>
       </c>
       <c r="DK6" t="inlineStr"/>
+      <c r="DL6" t="inlineStr"/>
+      <c r="DM6" t="inlineStr"/>
+      <c r="DN6" t="inlineStr"/>
+      <c r="DO6" t="inlineStr"/>
+      <c r="DP6" t="inlineStr"/>
+      <c r="DQ6" t="inlineStr"/>
+      <c r="DR6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>61</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -3506,9 +3649,28 @@
           <t>C+</t>
         </is>
       </c>
+      <c r="DL7" t="inlineStr"/>
+      <c r="DM7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DN7" t="inlineStr">
+        <is>
+          <t>BB-</t>
+        </is>
+      </c>
+      <c r="DO7" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP7" t="inlineStr"/>
+      <c r="DQ7" t="inlineStr"/>
+      <c r="DR7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>67</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -3925,9 +4087,28 @@
           <t>B+</t>
         </is>
       </c>
+      <c r="DL8" t="inlineStr"/>
+      <c r="DM8" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="DN8" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DO8" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP8" t="inlineStr"/>
+      <c r="DQ8" t="inlineStr"/>
+      <c r="DR8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>68</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -4344,9 +4525,40 @@
           <t>A</t>
         </is>
       </c>
+      <c r="DL9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DM9" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN9" t="inlineStr">
+        <is>
+          <t>AA-</t>
+        </is>
+      </c>
+      <c r="DO9" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DP9" t="inlineStr"/>
+      <c r="DQ9" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DR9" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>70</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -4759,9 +4971,16 @@
         </is>
       </c>
       <c r="DK10" t="inlineStr"/>
+      <c r="DL10" t="inlineStr"/>
+      <c r="DM10" t="inlineStr"/>
+      <c r="DN10" t="inlineStr"/>
+      <c r="DO10" t="inlineStr"/>
+      <c r="DP10" t="inlineStr"/>
+      <c r="DQ10" t="inlineStr"/>
+      <c r="DR10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>71</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -5178,9 +5397,40 @@
           <t>B+</t>
         </is>
       </c>
+      <c r="DL11" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="DM11" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN11" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="DO11" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DP11" t="inlineStr"/>
+      <c r="DQ11" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DR11" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>79</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -5597,9 +5847,28 @@
           <t>C</t>
         </is>
       </c>
+      <c r="DL12" t="inlineStr"/>
+      <c r="DM12" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="DN12" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DO12" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DP12" t="inlineStr"/>
+      <c r="DQ12" t="inlineStr"/>
+      <c r="DR12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" t="n">
         <v>80</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -6016,9 +6285,40 @@
           <t>C</t>
         </is>
       </c>
+      <c r="DL13" t="inlineStr">
+        <is>
+          <t>D+</t>
+        </is>
+      </c>
+      <c r="DM13" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="DN13" t="inlineStr">
+        <is>
+          <t>BBB+</t>
+        </is>
+      </c>
+      <c r="DO13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DP13" t="inlineStr"/>
+      <c r="DQ13" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+      <c r="DR13" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>84</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -6431,9 +6731,16 @@
         </is>
       </c>
       <c r="DK14" t="inlineStr"/>
+      <c r="DL14" t="inlineStr"/>
+      <c r="DM14" t="inlineStr"/>
+      <c r="DN14" t="inlineStr"/>
+      <c r="DO14" t="inlineStr"/>
+      <c r="DP14" t="inlineStr"/>
+      <c r="DQ14" t="inlineStr"/>
+      <c r="DR14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" t="n">
         <v>92</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -6850,9 +7157,36 @@
           <t>A+</t>
         </is>
       </c>
+      <c r="DL15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DM15" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DN15" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="DO15" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DP15" t="inlineStr"/>
+      <c r="DQ15" t="inlineStr"/>
+      <c r="DR15" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" t="n">
         <v>93</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -7269,9 +7603,36 @@
           <t>A</t>
         </is>
       </c>
+      <c r="DL16" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DM16" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN16" t="inlineStr">
+        <is>
+          <t>AA+</t>
+        </is>
+      </c>
+      <c r="DO16" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="DP16" t="inlineStr"/>
+      <c r="DQ16" t="inlineStr"/>
+      <c r="DR16" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" t="n">
         <v>94</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -7684,9 +8045,32 @@
         </is>
       </c>
       <c r="DK17" t="inlineStr"/>
+      <c r="DL17" t="inlineStr"/>
+      <c r="DM17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DN17" t="inlineStr"/>
+      <c r="DO17" t="inlineStr">
+        <is>
+          <t>BBB-</t>
+        </is>
+      </c>
+      <c r="DP17" t="inlineStr">
+        <is>
+          <t>30.19</t>
+        </is>
+      </c>
+      <c r="DQ17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DR17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" t="n">
         <v>96</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -8103,9 +8487,36 @@
           <t>A-</t>
         </is>
       </c>
+      <c r="DL18" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="DM18" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN18" t="inlineStr">
+        <is>
+          <t>BBB+</t>
+        </is>
+      </c>
+      <c r="DO18" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DP18" t="inlineStr"/>
+      <c r="DQ18" t="inlineStr"/>
+      <c r="DR18" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" t="n">
         <v>97</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -8518,9 +8929,32 @@
         </is>
       </c>
       <c r="DK19" t="inlineStr"/>
+      <c r="DL19" t="inlineStr"/>
+      <c r="DM19" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN19" t="inlineStr"/>
+      <c r="DO19" t="inlineStr">
+        <is>
+          <t>BBB-</t>
+        </is>
+      </c>
+      <c r="DP19" t="inlineStr">
+        <is>
+          <t>21.88</t>
+        </is>
+      </c>
+      <c r="DQ19" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DR19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" t="n">
         <v>100</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -8937,9 +9371,28 @@
           <t>D-</t>
         </is>
       </c>
+      <c r="DL20" t="inlineStr"/>
+      <c r="DM20" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DN20" t="inlineStr">
+        <is>
+          <t>BBB+</t>
+        </is>
+      </c>
+      <c r="DO20" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP20" t="inlineStr"/>
+      <c r="DQ20" t="inlineStr"/>
+      <c r="DR20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" t="n">
         <v>102</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -9356,9 +9809,40 @@
           <t>C+</t>
         </is>
       </c>
+      <c r="DL21" t="inlineStr">
+        <is>
+          <t>D+</t>
+        </is>
+      </c>
+      <c r="DM21" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN21" t="inlineStr">
+        <is>
+          <t>AA-</t>
+        </is>
+      </c>
+      <c r="DO21" t="inlineStr">
+        <is>
+          <t>A⁺</t>
+        </is>
+      </c>
+      <c r="DP21" t="inlineStr"/>
+      <c r="DQ21" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DR21" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" t="n">
         <v>103</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -9775,9 +10259,36 @@
           <t>A-</t>
         </is>
       </c>
+      <c r="DL22" t="inlineStr">
+        <is>
+          <t>D+</t>
+        </is>
+      </c>
+      <c r="DM22" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN22" t="inlineStr">
+        <is>
+          <t>AA-</t>
+        </is>
+      </c>
+      <c r="DO22" t="inlineStr">
+        <is>
+          <t>A⁺</t>
+        </is>
+      </c>
+      <c r="DP22" t="inlineStr"/>
+      <c r="DQ22" t="inlineStr"/>
+      <c r="DR22" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" t="n">
         <v>108</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -10194,9 +10705,28 @@
           <t>D+</t>
         </is>
       </c>
+      <c r="DL23" t="inlineStr"/>
+      <c r="DM23" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="DN23" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DO23" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP23" t="inlineStr"/>
+      <c r="DQ23" t="inlineStr"/>
+      <c r="DR23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" t="n">
         <v>109</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -10609,9 +11139,36 @@
         </is>
       </c>
       <c r="DK24" t="inlineStr"/>
+      <c r="DL24" t="inlineStr"/>
+      <c r="DM24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DN24" t="inlineStr"/>
+      <c r="DO24" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DP24" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="DQ24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DR24" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" t="n">
         <v>113</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -11024,9 +11581,32 @@
         </is>
       </c>
       <c r="DK25" t="inlineStr"/>
+      <c r="DL25" t="inlineStr"/>
+      <c r="DM25" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN25" t="inlineStr"/>
+      <c r="DO25" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP25" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="DQ25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DR25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="A26" t="n">
         <v>115</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -11439,9 +12019,32 @@
         </is>
       </c>
       <c r="DK26" t="inlineStr"/>
+      <c r="DL26" t="inlineStr"/>
+      <c r="DM26" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN26" t="inlineStr"/>
+      <c r="DO26" t="inlineStr">
+        <is>
+          <t>BBB-</t>
+        </is>
+      </c>
+      <c r="DP26" t="inlineStr">
+        <is>
+          <t>17.3</t>
+        </is>
+      </c>
+      <c r="DQ26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DR26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" t="n">
         <v>121</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -11858,9 +12461,28 @@
           <t>D+</t>
         </is>
       </c>
+      <c r="DL27" t="inlineStr"/>
+      <c r="DM27" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="DN27" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DO27" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DP27" t="inlineStr"/>
+      <c r="DQ27" t="inlineStr"/>
+      <c r="DR27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="A28" t="n">
         <v>122</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -12277,9 +12899,28 @@
           <t>C+</t>
         </is>
       </c>
+      <c r="DL28" t="inlineStr"/>
+      <c r="DM28" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="DN28" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DO28" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP28" t="inlineStr"/>
+      <c r="DQ28" t="inlineStr"/>
+      <c r="DR28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="A29" t="n">
         <v>136</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -12696,9 +13337,36 @@
           <t>A</t>
         </is>
       </c>
+      <c r="DL29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DM29" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN29" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="DO29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DP29" t="inlineStr"/>
+      <c r="DQ29" t="inlineStr"/>
+      <c r="DR29" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" t="n">
         <v>141</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -13111,9 +13779,24 @@
         </is>
       </c>
       <c r="DK30" t="inlineStr"/>
+      <c r="DL30" t="inlineStr"/>
+      <c r="DM30" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN30" t="inlineStr"/>
+      <c r="DO30" t="inlineStr"/>
+      <c r="DP30" t="inlineStr">
+        <is>
+          <t>58.02</t>
+        </is>
+      </c>
+      <c r="DQ30" t="inlineStr"/>
+      <c r="DR30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" t="n">
         <v>142</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -13526,9 +14209,32 @@
         </is>
       </c>
       <c r="DK31" t="inlineStr"/>
+      <c r="DL31" t="inlineStr"/>
+      <c r="DM31" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN31" t="inlineStr"/>
+      <c r="DO31" t="inlineStr">
+        <is>
+          <t>BBB-</t>
+        </is>
+      </c>
+      <c r="DP31" t="inlineStr">
+        <is>
+          <t>30.41</t>
+        </is>
+      </c>
+      <c r="DQ31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DR31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="A32" t="n">
         <v>145</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -13941,9 +14647,16 @@
         </is>
       </c>
       <c r="DK32" t="inlineStr"/>
+      <c r="DL32" t="inlineStr"/>
+      <c r="DM32" t="inlineStr"/>
+      <c r="DN32" t="inlineStr"/>
+      <c r="DO32" t="inlineStr"/>
+      <c r="DP32" t="inlineStr"/>
+      <c r="DQ32" t="inlineStr"/>
+      <c r="DR32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" t="n">
         <v>147</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -14356,9 +15069,20 @@
         </is>
       </c>
       <c r="DK33" t="inlineStr"/>
+      <c r="DL33" t="inlineStr"/>
+      <c r="DM33" t="inlineStr"/>
+      <c r="DN33" t="inlineStr"/>
+      <c r="DO33" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP33" t="inlineStr"/>
+      <c r="DQ33" t="inlineStr"/>
+      <c r="DR33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="A34" t="n">
         <v>150</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -14775,9 +15499,36 @@
           <t>A-</t>
         </is>
       </c>
+      <c r="DL34" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="DM34" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DN34" t="inlineStr">
+        <is>
+          <t>BBB+</t>
+        </is>
+      </c>
+      <c r="DO34" t="inlineStr">
+        <is>
+          <t>BBB-</t>
+        </is>
+      </c>
+      <c r="DP34" t="inlineStr"/>
+      <c r="DQ34" t="inlineStr"/>
+      <c r="DR34" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" t="n">
         <v>151</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -15194,9 +15945,36 @@
           <t>C+</t>
         </is>
       </c>
+      <c r="DL35" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="DM35" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN35" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="DO35" t="inlineStr">
+        <is>
+          <t>BBB⁺</t>
+        </is>
+      </c>
+      <c r="DP35" t="inlineStr"/>
+      <c r="DQ35" t="inlineStr"/>
+      <c r="DR35" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="A36" t="n">
         <v>153</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -15613,9 +16391,36 @@
           <t>D+</t>
         </is>
       </c>
+      <c r="DL36" t="inlineStr">
+        <is>
+          <t>D-</t>
+        </is>
+      </c>
+      <c r="DM36" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN36" t="inlineStr">
+        <is>
+          <t>AA+</t>
+        </is>
+      </c>
+      <c r="DO36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DP36" t="inlineStr"/>
+      <c r="DQ36" t="inlineStr"/>
+      <c r="DR36" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" t="n">
         <v>154</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -16028,9 +16833,16 @@
         </is>
       </c>
       <c r="DK37" t="inlineStr"/>
+      <c r="DL37" t="inlineStr"/>
+      <c r="DM37" t="inlineStr"/>
+      <c r="DN37" t="inlineStr"/>
+      <c r="DO37" t="inlineStr"/>
+      <c r="DP37" t="inlineStr"/>
+      <c r="DQ37" t="inlineStr"/>
+      <c r="DR37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" t="n">
         <v>161</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -16443,9 +17255,20 @@
         </is>
       </c>
       <c r="DK38" t="inlineStr"/>
+      <c r="DL38" t="inlineStr"/>
+      <c r="DM38" t="inlineStr"/>
+      <c r="DN38" t="inlineStr"/>
+      <c r="DO38" t="inlineStr">
+        <is>
+          <t>BBB-</t>
+        </is>
+      </c>
+      <c r="DP38" t="inlineStr"/>
+      <c r="DQ38" t="inlineStr"/>
+      <c r="DR38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="A39" t="n">
         <v>162</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -16862,9 +17685,28 @@
           <t>C-</t>
         </is>
       </c>
+      <c r="DL39" t="inlineStr"/>
+      <c r="DM39" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="DN39" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+      <c r="DO39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DP39" t="inlineStr"/>
+      <c r="DQ39" t="inlineStr"/>
+      <c r="DR39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="A40" t="n">
         <v>163</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -17281,9 +18123,28 @@
           <t>B+</t>
         </is>
       </c>
+      <c r="DL40" t="inlineStr"/>
+      <c r="DM40" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DN40" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="DO40" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DP40" t="inlineStr"/>
+      <c r="DQ40" t="inlineStr"/>
+      <c r="DR40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="A41" t="n">
         <v>166</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -17700,9 +18561,28 @@
           <t>A+</t>
         </is>
       </c>
+      <c r="DL41" t="inlineStr"/>
+      <c r="DM41" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DN41" t="inlineStr">
+        <is>
+          <t>BBB+</t>
+        </is>
+      </c>
+      <c r="DO41" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DP41" t="inlineStr"/>
+      <c r="DQ41" t="inlineStr"/>
+      <c r="DR41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="A42" t="n">
         <v>173</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -18115,9 +18995,16 @@
         </is>
       </c>
       <c r="DK42" t="inlineStr"/>
+      <c r="DL42" t="inlineStr"/>
+      <c r="DM42" t="inlineStr"/>
+      <c r="DN42" t="inlineStr"/>
+      <c r="DO42" t="inlineStr"/>
+      <c r="DP42" t="inlineStr"/>
+      <c r="DQ42" t="inlineStr"/>
+      <c r="DR42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="A43" t="n">
         <v>176</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -18534,9 +19421,28 @@
           <t>A-</t>
         </is>
       </c>
+      <c r="DL43" t="inlineStr"/>
+      <c r="DM43" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="DN43" t="inlineStr">
+        <is>
+          <t>BB-</t>
+        </is>
+      </c>
+      <c r="DO43" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP43" t="inlineStr"/>
+      <c r="DQ43" t="inlineStr"/>
+      <c r="DR43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="A44" t="n">
         <v>177</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -18949,9 +19855,32 @@
         </is>
       </c>
       <c r="DK44" t="inlineStr"/>
+      <c r="DL44" t="inlineStr"/>
+      <c r="DM44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DN44" t="inlineStr"/>
+      <c r="DO44" t="inlineStr">
+        <is>
+          <t>BBB⁺</t>
+        </is>
+      </c>
+      <c r="DP44" t="inlineStr">
+        <is>
+          <t>17.84</t>
+        </is>
+      </c>
+      <c r="DQ44" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="DR44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="A45" t="n">
         <v>182</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -19368,9 +20297,28 @@
           <t>B</t>
         </is>
       </c>
+      <c r="DL45" t="inlineStr"/>
+      <c r="DM45" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="DN45" t="inlineStr">
+        <is>
+          <t>BBB+</t>
+        </is>
+      </c>
+      <c r="DO45" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DP45" t="inlineStr"/>
+      <c r="DQ45" t="inlineStr"/>
+      <c r="DR45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="A46" t="n">
         <v>192</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -19783,9 +20731,28 @@
         </is>
       </c>
       <c r="DK46" t="inlineStr"/>
+      <c r="DL46" t="inlineStr"/>
+      <c r="DM46" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN46" t="inlineStr"/>
+      <c r="DO46" t="inlineStr"/>
+      <c r="DP46" t="inlineStr">
+        <is>
+          <t>28.95</t>
+        </is>
+      </c>
+      <c r="DQ46" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DR46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="A47" t="n">
         <v>200</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -20202,9 +21169,32 @@
           <t>A+</t>
         </is>
       </c>
+      <c r="DL47" t="inlineStr"/>
+      <c r="DM47" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN47" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="DO47" t="inlineStr">
+        <is>
+          <t>A⁺</t>
+        </is>
+      </c>
+      <c r="DP47" t="inlineStr"/>
+      <c r="DQ47" t="inlineStr"/>
+      <c r="DR47" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="A48" t="n">
         <v>206</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -20621,9 +21611,40 @@
           <t>B-</t>
         </is>
       </c>
+      <c r="DL48" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="DM48" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN48" t="inlineStr">
+        <is>
+          <t>AA-</t>
+        </is>
+      </c>
+      <c r="DO48" t="inlineStr">
+        <is>
+          <t>AA-</t>
+        </is>
+      </c>
+      <c r="DP48" t="inlineStr"/>
+      <c r="DQ48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DR48" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
+      <c r="A49" t="n">
         <v>213</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -21040,9 +22061,40 @@
           <t>B+</t>
         </is>
       </c>
+      <c r="DL49" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="DM49" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DN49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DO49" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DP49" t="inlineStr"/>
+      <c r="DQ49" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DR49" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
+      <c r="A50" t="n">
         <v>214</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -21455,9 +22507,32 @@
         </is>
       </c>
       <c r="DK50" t="inlineStr"/>
+      <c r="DL50" t="inlineStr"/>
+      <c r="DM50" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN50" t="inlineStr"/>
+      <c r="DO50" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DP50" t="inlineStr">
+        <is>
+          <t>29.8</t>
+        </is>
+      </c>
+      <c r="DQ50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DR50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
+      <c r="A51" t="n">
         <v>219</v>
       </c>
       <c r="B51" t="inlineStr">
@@ -21874,9 +22949,36 @@
           <t>D-</t>
         </is>
       </c>
+      <c r="DL51" t="inlineStr">
+        <is>
+          <t>D-</t>
+        </is>
+      </c>
+      <c r="DM51" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DN51" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DO51" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DP51" t="inlineStr"/>
+      <c r="DQ51" t="inlineStr"/>
+      <c r="DR51" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
+      <c r="A52" t="n">
         <v>239</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -22289,9 +23391,28 @@
         </is>
       </c>
       <c r="DK52" t="inlineStr"/>
+      <c r="DL52" t="inlineStr"/>
+      <c r="DM52" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN52" t="inlineStr"/>
+      <c r="DO52" t="inlineStr"/>
+      <c r="DP52" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="DQ52" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DR52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
+      <c r="A53" t="n">
         <v>240</v>
       </c>
       <c r="B53" t="inlineStr">
@@ -22704,9 +23825,24 @@
         </is>
       </c>
       <c r="DK53" t="inlineStr"/>
+      <c r="DL53" t="inlineStr"/>
+      <c r="DM53" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN53" t="inlineStr"/>
+      <c r="DO53" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP53" t="inlineStr"/>
+      <c r="DQ53" t="inlineStr"/>
+      <c r="DR53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
+      <c r="A54" t="n">
         <v>241</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -23123,9 +24259,28 @@
           <t>B-</t>
         </is>
       </c>
+      <c r="DL54" t="inlineStr"/>
+      <c r="DM54" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="DN54" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DO54" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DP54" t="inlineStr"/>
+      <c r="DQ54" t="inlineStr"/>
+      <c r="DR54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
+      <c r="A55" t="n">
         <v>246</v>
       </c>
       <c r="B55" t="inlineStr">
@@ -23538,9 +24693,32 @@
         </is>
       </c>
       <c r="DK55" t="inlineStr"/>
+      <c r="DL55" t="inlineStr"/>
+      <c r="DM55" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN55" t="inlineStr"/>
+      <c r="DO55" t="inlineStr">
+        <is>
+          <t>BBB⁺</t>
+        </is>
+      </c>
+      <c r="DP55" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="DQ55" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DR55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
+      <c r="A56" t="n">
         <v>253</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -23957,9 +25135,36 @@
           <t>A+</t>
         </is>
       </c>
+      <c r="DL56" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DM56" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN56" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DO56" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DP56" t="inlineStr"/>
+      <c r="DQ56" t="inlineStr"/>
+      <c r="DR56" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
+      <c r="A57" t="n">
         <v>259</v>
       </c>
       <c r="B57" t="inlineStr">
@@ -24376,9 +25581,28 @@
           <t>B</t>
         </is>
       </c>
+      <c r="DL57" t="inlineStr"/>
+      <c r="DM57" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DN57" t="inlineStr">
+        <is>
+          <t>BBB-</t>
+        </is>
+      </c>
+      <c r="DO57" t="inlineStr">
+        <is>
+          <t>BBB-</t>
+        </is>
+      </c>
+      <c r="DP57" t="inlineStr"/>
+      <c r="DQ57" t="inlineStr"/>
+      <c r="DR57" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
+      <c r="A58" t="n">
         <v>270</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -24795,9 +26019,32 @@
           <t>B-</t>
         </is>
       </c>
+      <c r="DL58" t="inlineStr"/>
+      <c r="DM58" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="DN58" t="inlineStr">
+        <is>
+          <t>BB+</t>
+        </is>
+      </c>
+      <c r="DO58" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DP58" t="inlineStr"/>
+      <c r="DQ58" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="DR58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
+      <c r="A59" t="n">
         <v>271</v>
       </c>
       <c r="B59" t="inlineStr">
@@ -25210,9 +26457,32 @@
         </is>
       </c>
       <c r="DK59" t="inlineStr"/>
+      <c r="DL59" t="inlineStr"/>
+      <c r="DM59" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN59" t="inlineStr"/>
+      <c r="DO59" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP59" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="DQ59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DR59" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
+      <c r="A60" t="n">
         <v>275</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -25625,9 +26895,36 @@
         </is>
       </c>
       <c r="DK60" t="inlineStr"/>
+      <c r="DL60" t="inlineStr"/>
+      <c r="DM60" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN60" t="inlineStr"/>
+      <c r="DO60" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DP60" t="inlineStr">
+        <is>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="DQ60" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DR60" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
+      <c r="A61" t="n">
         <v>276</v>
       </c>
       <c r="B61" t="inlineStr">
@@ -26044,9 +27341,40 @@
           <t>A-</t>
         </is>
       </c>
+      <c r="DL61" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="DM61" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN61" t="inlineStr">
+        <is>
+          <t>AA-</t>
+        </is>
+      </c>
+      <c r="DO61" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DP61" t="inlineStr"/>
+      <c r="DQ61" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DR61" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
+      <c r="A62" t="n">
         <v>277</v>
       </c>
       <c r="B62" t="inlineStr">
@@ -26463,9 +27791,36 @@
           <t>A+</t>
         </is>
       </c>
+      <c r="DL62" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DM62" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN62" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DO62" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP62" t="inlineStr"/>
+      <c r="DQ62" t="inlineStr"/>
+      <c r="DR62" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
+      <c r="A63" t="n">
         <v>278</v>
       </c>
       <c r="B63" t="inlineStr">
@@ -26882,9 +28237,40 @@
           <t>A</t>
         </is>
       </c>
+      <c r="DL63" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DM63" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DN63" t="inlineStr">
+        <is>
+          <t>BBB+</t>
+        </is>
+      </c>
+      <c r="DO63" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP63" t="inlineStr"/>
+      <c r="DQ63" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+      <c r="DR63" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
+      <c r="A64" t="n">
         <v>279</v>
       </c>
       <c r="B64" t="inlineStr">
@@ -27301,9 +28687,28 @@
           <t>A</t>
         </is>
       </c>
+      <c r="DL64" t="inlineStr"/>
+      <c r="DM64" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DN64" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DO64" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DP64" t="inlineStr"/>
+      <c r="DQ64" t="inlineStr"/>
+      <c r="DR64" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
+      <c r="A65" t="n">
         <v>283</v>
       </c>
       <c r="B65" t="inlineStr">
@@ -27720,9 +29125,28 @@
           <t>D-</t>
         </is>
       </c>
+      <c r="DL65" t="inlineStr"/>
+      <c r="DM65" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="DN65" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DO65" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP65" t="inlineStr"/>
+      <c r="DQ65" t="inlineStr"/>
+      <c r="DR65" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
+      <c r="A66" t="n">
         <v>288</v>
       </c>
       <c r="B66" t="inlineStr">
@@ -28139,9 +29563,40 @@
           <t>C</t>
         </is>
       </c>
+      <c r="DL66" t="inlineStr">
+        <is>
+          <t>D+</t>
+        </is>
+      </c>
+      <c r="DM66" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN66" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="DO66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DP66" t="inlineStr"/>
+      <c r="DQ66" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DR66" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
+      <c r="A67" t="n">
         <v>289</v>
       </c>
       <c r="B67" t="inlineStr">
@@ -28558,9 +30013,40 @@
           <t>C</t>
         </is>
       </c>
+      <c r="DL67" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="DM67" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN67" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="DO67" t="inlineStr">
+        <is>
+          <t>AA-</t>
+        </is>
+      </c>
+      <c r="DP67" t="inlineStr"/>
+      <c r="DQ67" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DR67" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
+      <c r="A68" t="n">
         <v>291</v>
       </c>
       <c r="B68" t="inlineStr">
@@ -28977,9 +30463,28 @@
           <t>C+</t>
         </is>
       </c>
+      <c r="DL68" t="inlineStr"/>
+      <c r="DM68" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="DN68" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DO68" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP68" t="inlineStr"/>
+      <c r="DQ68" t="inlineStr"/>
+      <c r="DR68" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
+      <c r="A69" t="n">
         <v>292</v>
       </c>
       <c r="B69" t="inlineStr">
@@ -29396,9 +30901,36 @@
           <t>A+</t>
         </is>
       </c>
+      <c r="DL69" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DM69" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN69" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DO69" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DP69" t="inlineStr"/>
+      <c r="DQ69" t="inlineStr"/>
+      <c r="DR69" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
+      <c r="A70" t="n">
         <v>293</v>
       </c>
       <c r="B70" t="inlineStr">
@@ -29815,9 +31347,28 @@
           <t>A-</t>
         </is>
       </c>
+      <c r="DL70" t="inlineStr"/>
+      <c r="DM70" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DN70" t="inlineStr">
+        <is>
+          <t>BBB+</t>
+        </is>
+      </c>
+      <c r="DO70" t="inlineStr">
+        <is>
+          <t>BBB⁺</t>
+        </is>
+      </c>
+      <c r="DP70" t="inlineStr"/>
+      <c r="DQ70" t="inlineStr"/>
+      <c r="DR70" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
+      <c r="A71" t="n">
         <v>294</v>
       </c>
       <c r="B71" t="inlineStr">
@@ -30234,9 +31785,40 @@
           <t>A</t>
         </is>
       </c>
+      <c r="DL71" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="DM71" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DN71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DO71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DP71" t="inlineStr"/>
+      <c r="DQ71" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DR71" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
+      <c r="A72" t="n">
         <v>295</v>
       </c>
       <c r="B72" t="inlineStr">
@@ -30653,9 +32235,36 @@
           <t>B+</t>
         </is>
       </c>
+      <c r="DL72" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="DM72" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN72" t="inlineStr">
+        <is>
+          <t>AA-</t>
+        </is>
+      </c>
+      <c r="DO72" t="inlineStr">
+        <is>
+          <t>A⁺</t>
+        </is>
+      </c>
+      <c r="DP72" t="inlineStr"/>
+      <c r="DQ72" t="inlineStr"/>
+      <c r="DR72" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
+      <c r="A73" t="n">
         <v>296</v>
       </c>
       <c r="B73" t="inlineStr">
@@ -31072,9 +32681,40 @@
           <t>A+</t>
         </is>
       </c>
+      <c r="DL73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DM73" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN73" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="DO73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DP73" t="inlineStr"/>
+      <c r="DQ73" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+      <c r="DR73" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
+      <c r="A74" t="n">
         <v>297</v>
       </c>
       <c r="B74" t="inlineStr">
@@ -31491,9 +33131,40 @@
           <t>A+</t>
         </is>
       </c>
+      <c r="DL74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DM74" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN74" t="inlineStr">
+        <is>
+          <t>AA+</t>
+        </is>
+      </c>
+      <c r="DO74" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="DP74" t="inlineStr"/>
+      <c r="DQ74" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DR74" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
+      <c r="A75" t="n">
         <v>299</v>
       </c>
       <c r="B75" t="inlineStr">
@@ -31910,9 +33581,40 @@
           <t>A+</t>
         </is>
       </c>
+      <c r="DL75" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DM75" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN75" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="DO75" t="inlineStr">
+        <is>
+          <t>AA-</t>
+        </is>
+      </c>
+      <c r="DP75" t="inlineStr"/>
+      <c r="DQ75" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DR75" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
+      <c r="A76" t="n">
         <v>301</v>
       </c>
       <c r="B76" t="inlineStr">
@@ -32329,9 +34031,36 @@
           <t>A+</t>
         </is>
       </c>
+      <c r="DL76" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DM76" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN76" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="DO76" t="inlineStr">
+        <is>
+          <t>AA-</t>
+        </is>
+      </c>
+      <c r="DP76" t="inlineStr"/>
+      <c r="DQ76" t="inlineStr"/>
+      <c r="DR76" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
+      <c r="A77" t="n">
         <v>303</v>
       </c>
       <c r="B77" t="inlineStr">
@@ -32748,9 +34477,40 @@
           <t>A-</t>
         </is>
       </c>
+      <c r="DL77" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="DM77" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DN77" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="DO77" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DP77" t="inlineStr"/>
+      <c r="DQ77" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DR77" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
+      <c r="A78" t="n">
         <v>304</v>
       </c>
       <c r="B78" t="inlineStr">
@@ -33167,9 +34927,36 @@
           <t>C-</t>
         </is>
       </c>
+      <c r="DL78" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="DM78" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN78" t="inlineStr">
+        <is>
+          <t>AA-</t>
+        </is>
+      </c>
+      <c r="DO78" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DP78" t="inlineStr"/>
+      <c r="DQ78" t="inlineStr"/>
+      <c r="DR78" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
+      <c r="A79" t="n">
         <v>305</v>
       </c>
       <c r="B79" t="inlineStr">
@@ -33586,9 +35373,40 @@
           <t>A</t>
         </is>
       </c>
+      <c r="DL79" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DM79" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DN79" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="DO79" t="inlineStr">
+        <is>
+          <t>AA-</t>
+        </is>
+      </c>
+      <c r="DP79" t="inlineStr"/>
+      <c r="DQ79" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DR79" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
+      <c r="A80" t="n">
         <v>306</v>
       </c>
       <c r="B80" t="inlineStr">
@@ -34005,9 +35823,32 @@
           <t>B-</t>
         </is>
       </c>
+      <c r="DL80" t="inlineStr"/>
+      <c r="DM80" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DN80" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DO80" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DP80" t="inlineStr"/>
+      <c r="DQ80" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+      <c r="DR80" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
+      <c r="A81" t="n">
         <v>308</v>
       </c>
       <c r="B81" t="inlineStr">
@@ -34424,9 +36265,36 @@
           <t>C+</t>
         </is>
       </c>
+      <c r="DL81" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="DM81" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN81" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="DO81" t="inlineStr">
+        <is>
+          <t>BBB⁺</t>
+        </is>
+      </c>
+      <c r="DP81" t="inlineStr"/>
+      <c r="DQ81" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DR81" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
+      <c r="A82" t="n">
         <v>316</v>
       </c>
       <c r="B82" t="inlineStr">
@@ -34843,9 +36711,32 @@
           <t>C-</t>
         </is>
       </c>
+      <c r="DL82" t="inlineStr"/>
+      <c r="DM82" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="DN82" t="inlineStr">
+        <is>
+          <t>BB-</t>
+        </is>
+      </c>
+      <c r="DO82" t="inlineStr">
+        <is>
+          <t>BBB-</t>
+        </is>
+      </c>
+      <c r="DP82" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="DQ82" t="inlineStr"/>
+      <c r="DR82" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
+      <c r="A83" t="n">
         <v>317</v>
       </c>
       <c r="B83" t="inlineStr">
@@ -35262,9 +37153,36 @@
           <t>B-</t>
         </is>
       </c>
+      <c r="DL83" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="DM83" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="DN83" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DO83" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP83" t="inlineStr"/>
+      <c r="DQ83" t="inlineStr"/>
+      <c r="DR83" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
+      <c r="A84" t="n">
         <v>321</v>
       </c>
       <c r="B84" t="inlineStr">
@@ -35681,9 +37599,40 @@
           <t>B+</t>
         </is>
       </c>
+      <c r="DL84" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="DM84" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN84" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="DO84" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DP84" t="inlineStr"/>
+      <c r="DQ84" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DR84" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
+      <c r="A85" t="n">
         <v>322</v>
       </c>
       <c r="B85" t="inlineStr">
@@ -36100,9 +38049,28 @@
           <t>C</t>
         </is>
       </c>
+      <c r="DL85" t="inlineStr"/>
+      <c r="DM85" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN85" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="DO85" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DP85" t="inlineStr"/>
+      <c r="DQ85" t="inlineStr"/>
+      <c r="DR85" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
+      <c r="A86" t="n">
         <v>332</v>
       </c>
       <c r="B86" t="inlineStr">
@@ -36519,9 +38487,28 @@
           <t>D+</t>
         </is>
       </c>
+      <c r="DL86" t="inlineStr"/>
+      <c r="DM86" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="DN86" t="inlineStr">
+        <is>
+          <t>BB-</t>
+        </is>
+      </c>
+      <c r="DO86" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP86" t="inlineStr"/>
+      <c r="DQ86" t="inlineStr"/>
+      <c r="DR86" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
+      <c r="A87" t="n">
         <v>341</v>
       </c>
       <c r="B87" t="inlineStr">
@@ -36938,9 +38925,28 @@
           <t>B</t>
         </is>
       </c>
+      <c r="DL87" t="inlineStr"/>
+      <c r="DM87" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DN87" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="DO87" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DP87" t="inlineStr"/>
+      <c r="DQ87" t="inlineStr"/>
+      <c r="DR87" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
+      <c r="A88" t="n">
         <v>342</v>
       </c>
       <c r="B88" t="inlineStr">
@@ -37357,9 +39363,36 @@
           <t>C+</t>
         </is>
       </c>
+      <c r="DL88" t="inlineStr">
+        <is>
+          <t>D+</t>
+        </is>
+      </c>
+      <c r="DM88" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DN88" t="inlineStr">
+        <is>
+          <t>BB+</t>
+        </is>
+      </c>
+      <c r="DO88" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP88" t="inlineStr"/>
+      <c r="DQ88" t="inlineStr"/>
+      <c r="DR88" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
+      <c r="A89" t="n">
         <v>343</v>
       </c>
       <c r="B89" t="inlineStr">
@@ -37776,9 +39809,28 @@
           <t>C-</t>
         </is>
       </c>
+      <c r="DL89" t="inlineStr"/>
+      <c r="DM89" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DN89" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DO89" t="inlineStr">
+        <is>
+          <t>BBB-</t>
+        </is>
+      </c>
+      <c r="DP89" t="inlineStr"/>
+      <c r="DQ89" t="inlineStr"/>
+      <c r="DR89" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
+      <c r="A90" t="n">
         <v>346</v>
       </c>
       <c r="B90" t="inlineStr">
@@ -38191,9 +40243,20 @@
         </is>
       </c>
       <c r="DK90" t="inlineStr"/>
+      <c r="DL90" t="inlineStr"/>
+      <c r="DM90" t="inlineStr"/>
+      <c r="DN90" t="inlineStr"/>
+      <c r="DO90" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP90" t="inlineStr"/>
+      <c r="DQ90" t="inlineStr"/>
+      <c r="DR90" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
+      <c r="A91" t="n">
         <v>359</v>
       </c>
       <c r="B91" t="inlineStr">
@@ -38610,9 +40673,32 @@
           <t>C+</t>
         </is>
       </c>
+      <c r="DL91" t="inlineStr"/>
+      <c r="DM91" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DN91" t="inlineStr">
+        <is>
+          <t>BB+</t>
+        </is>
+      </c>
+      <c r="DO91" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP91" t="inlineStr"/>
+      <c r="DQ91" t="inlineStr"/>
+      <c r="DR91" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
+      <c r="A92" t="n">
         <v>362</v>
       </c>
       <c r="B92" t="inlineStr">
@@ -39029,9 +41115,36 @@
           <t>A-</t>
         </is>
       </c>
+      <c r="DL92" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="DM92" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN92" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="DO92" t="inlineStr">
+        <is>
+          <t>A⁺</t>
+        </is>
+      </c>
+      <c r="DP92" t="inlineStr"/>
+      <c r="DQ92" t="inlineStr"/>
+      <c r="DR92" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
+      <c r="A93" t="n">
         <v>364</v>
       </c>
       <c r="B93" t="inlineStr">
@@ -39448,9 +41561,28 @@
           <t>C-</t>
         </is>
       </c>
+      <c r="DL93" t="inlineStr"/>
+      <c r="DM93" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="DN93" t="inlineStr">
+        <is>
+          <t>BB-</t>
+        </is>
+      </c>
+      <c r="DO93" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP93" t="inlineStr"/>
+      <c r="DQ93" t="inlineStr"/>
+      <c r="DR93" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
+      <c r="A94" t="n">
         <v>367</v>
       </c>
       <c r="B94" t="inlineStr">
@@ -39867,9 +41999,40 @@
           <t>C-</t>
         </is>
       </c>
+      <c r="DL94" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="DM94" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN94" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="DO94" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DP94" t="inlineStr"/>
+      <c r="DQ94" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DR94" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
+      <c r="A95" t="n">
         <v>369</v>
       </c>
       <c r="B95" t="inlineStr">
@@ -40286,9 +42449,32 @@
           <t>A+</t>
         </is>
       </c>
+      <c r="DL95" t="inlineStr"/>
+      <c r="DM95" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN95" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DO95" t="inlineStr">
+        <is>
+          <t>BBB⁺</t>
+        </is>
+      </c>
+      <c r="DP95" t="inlineStr"/>
+      <c r="DQ95" t="inlineStr"/>
+      <c r="DR95" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
+      <c r="A96" t="n">
         <v>370</v>
       </c>
       <c r="B96" t="inlineStr">
@@ -40705,9 +42891,36 @@
           <t>A+</t>
         </is>
       </c>
+      <c r="DL96" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DM96" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN96" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="DO96" t="inlineStr">
+        <is>
+          <t>A⁺</t>
+        </is>
+      </c>
+      <c r="DP96" t="inlineStr"/>
+      <c r="DQ96" t="inlineStr"/>
+      <c r="DR96" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
+      <c r="A97" t="n">
         <v>371</v>
       </c>
       <c r="B97" t="inlineStr">
@@ -41124,9 +43337,28 @@
           <t>A+</t>
         </is>
       </c>
+      <c r="DL97" t="inlineStr"/>
+      <c r="DM97" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DN97" t="inlineStr">
+        <is>
+          <t>BB+</t>
+        </is>
+      </c>
+      <c r="DO97" t="inlineStr">
+        <is>
+          <t>BBB-</t>
+        </is>
+      </c>
+      <c r="DP97" t="inlineStr"/>
+      <c r="DQ97" t="inlineStr"/>
+      <c r="DR97" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
+      <c r="A98" t="n">
         <v>372</v>
       </c>
       <c r="B98" t="inlineStr">
@@ -41543,9 +43775,44 @@
           <t>A-</t>
         </is>
       </c>
+      <c r="DL98" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DM98" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN98" t="inlineStr">
+        <is>
+          <t>BBB+</t>
+        </is>
+      </c>
+      <c r="DO98" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DP98" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="DQ98" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DR98" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
+      <c r="A99" t="n">
         <v>373</v>
       </c>
       <c r="B99" t="inlineStr">
@@ -41962,9 +44229,36 @@
           <t>A+</t>
         </is>
       </c>
+      <c r="DL99" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DM99" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN99" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="DO99" t="inlineStr">
+        <is>
+          <t>AA-</t>
+        </is>
+      </c>
+      <c r="DP99" t="inlineStr"/>
+      <c r="DQ99" t="inlineStr"/>
+      <c r="DR99" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
+      <c r="A100" t="n">
         <v>374</v>
       </c>
       <c r="B100" t="inlineStr">
@@ -42381,9 +44675,28 @@
           <t>D</t>
         </is>
       </c>
+      <c r="DL100" t="inlineStr"/>
+      <c r="DM100" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="DN100" t="inlineStr">
+        <is>
+          <t>BB-</t>
+        </is>
+      </c>
+      <c r="DO100" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP100" t="inlineStr"/>
+      <c r="DQ100" t="inlineStr"/>
+      <c r="DR100" t="inlineStr"/>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
+      <c r="A101" t="n">
         <v>377</v>
       </c>
       <c r="B101" t="inlineStr">
@@ -42796,9 +45109,32 @@
         </is>
       </c>
       <c r="DK101" t="inlineStr"/>
+      <c r="DL101" t="inlineStr"/>
+      <c r="DM101" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN101" t="inlineStr"/>
+      <c r="DO101" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DP101" t="inlineStr">
+        <is>
+          <t>40.69</t>
+        </is>
+      </c>
+      <c r="DQ101" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DR101" t="inlineStr"/>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
+      <c r="A102" t="n">
         <v>378</v>
       </c>
       <c r="B102" t="inlineStr">
@@ -43215,9 +45551,36 @@
           <t>A-</t>
         </is>
       </c>
+      <c r="DL102" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="DM102" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DN102" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DO102" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DP102" t="inlineStr"/>
+      <c r="DQ102" t="inlineStr"/>
+      <c r="DR102" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
+      <c r="A103" t="n">
         <v>379</v>
       </c>
       <c r="B103" t="inlineStr">
@@ -43634,9 +45997,28 @@
           <t>D</t>
         </is>
       </c>
+      <c r="DL103" t="inlineStr"/>
+      <c r="DM103" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DN103" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DO103" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DP103" t="inlineStr"/>
+      <c r="DQ103" t="inlineStr"/>
+      <c r="DR103" t="inlineStr"/>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
+      <c r="A104" t="n">
         <v>380</v>
       </c>
       <c r="B104" t="inlineStr">
@@ -44053,9 +46435,40 @@
           <t>A-</t>
         </is>
       </c>
+      <c r="DL104" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="DM104" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DN104" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="DO104" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DP104" t="inlineStr"/>
+      <c r="DQ104" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DR104" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
+      <c r="A105" t="n">
         <v>381</v>
       </c>
       <c r="B105" t="inlineStr">
@@ -44472,9 +46885,28 @@
           <t>A-</t>
         </is>
       </c>
+      <c r="DL105" t="inlineStr"/>
+      <c r="DM105" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN105" t="inlineStr">
+        <is>
+          <t>AA-</t>
+        </is>
+      </c>
+      <c r="DO105" t="inlineStr">
+        <is>
+          <t>BBB⁺</t>
+        </is>
+      </c>
+      <c r="DP105" t="inlineStr"/>
+      <c r="DQ105" t="inlineStr"/>
+      <c r="DR105" t="inlineStr"/>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
+      <c r="A106" t="n">
         <v>382</v>
       </c>
       <c r="B106" t="inlineStr">
@@ -44891,9 +47323,28 @@
           <t>B+</t>
         </is>
       </c>
+      <c r="DL106" t="inlineStr"/>
+      <c r="DM106" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="DN106" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DO106" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP106" t="inlineStr"/>
+      <c r="DQ106" t="inlineStr"/>
+      <c r="DR106" t="inlineStr"/>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
+      <c r="A107" t="n">
         <v>383</v>
       </c>
       <c r="B107" t="inlineStr">
@@ -45310,9 +47761,36 @@
           <t>B-</t>
         </is>
       </c>
+      <c r="DL107" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="DM107" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="DN107" t="inlineStr">
+        <is>
+          <t>BBB-</t>
+        </is>
+      </c>
+      <c r="DO107" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP107" t="inlineStr"/>
+      <c r="DQ107" t="inlineStr"/>
+      <c r="DR107" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
+      <c r="A108" t="n">
         <v>384</v>
       </c>
       <c r="B108" t="inlineStr">
@@ -45729,9 +48207,28 @@
           <t>D</t>
         </is>
       </c>
+      <c r="DL108" t="inlineStr"/>
+      <c r="DM108" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN108" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DO108" t="inlineStr">
+        <is>
+          <t>BBB-</t>
+        </is>
+      </c>
+      <c r="DP108" t="inlineStr"/>
+      <c r="DQ108" t="inlineStr"/>
+      <c r="DR108" t="inlineStr"/>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
+      <c r="A109" t="n">
         <v>392</v>
       </c>
       <c r="B109" t="inlineStr">
@@ -46148,9 +48645,28 @@
           <t>B+</t>
         </is>
       </c>
+      <c r="DL109" t="inlineStr"/>
+      <c r="DM109" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="DN109" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DO109" t="inlineStr">
+        <is>
+          <t>BBB-</t>
+        </is>
+      </c>
+      <c r="DP109" t="inlineStr"/>
+      <c r="DQ109" t="inlineStr"/>
+      <c r="DR109" t="inlineStr"/>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
+      <c r="A110" t="n">
         <v>393</v>
       </c>
       <c r="B110" t="inlineStr">
@@ -46567,9 +49083,36 @@
           <t>A</t>
         </is>
       </c>
+      <c r="DL110" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DM110" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DN110" t="inlineStr">
+        <is>
+          <t>BBB+</t>
+        </is>
+      </c>
+      <c r="DO110" t="inlineStr">
+        <is>
+          <t>BBB⁺</t>
+        </is>
+      </c>
+      <c r="DP110" t="inlineStr"/>
+      <c r="DQ110" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+      <c r="DR110" t="inlineStr"/>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
+      <c r="A111" t="n">
         <v>395</v>
       </c>
       <c r="B111" t="inlineStr">
@@ -46986,9 +49529,36 @@
           <t>B+</t>
         </is>
       </c>
+      <c r="DL111" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="DM111" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN111" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DO111" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DP111" t="inlineStr"/>
+      <c r="DQ111" t="inlineStr"/>
+      <c r="DR111" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
+      <c r="A112" t="n">
         <v>401</v>
       </c>
       <c r="B112" t="inlineStr">
@@ -47401,9 +49971,20 @@
         </is>
       </c>
       <c r="DK112" t="inlineStr"/>
+      <c r="DL112" t="inlineStr"/>
+      <c r="DM112" t="inlineStr"/>
+      <c r="DN112" t="inlineStr"/>
+      <c r="DO112" t="inlineStr"/>
+      <c r="DP112" t="inlineStr"/>
+      <c r="DQ112" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DR112" t="inlineStr"/>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
+      <c r="A113" t="n">
         <v>405</v>
       </c>
       <c r="B113" t="inlineStr">
@@ -47816,9 +50397,32 @@
         </is>
       </c>
       <c r="DK113" t="inlineStr"/>
+      <c r="DL113" t="inlineStr"/>
+      <c r="DM113" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN113" t="inlineStr"/>
+      <c r="DO113" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DP113" t="inlineStr">
+        <is>
+          <t>33.97</t>
+        </is>
+      </c>
+      <c r="DQ113" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DR113" t="inlineStr"/>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n">
+      <c r="A114" t="n">
         <v>406</v>
       </c>
       <c r="B114" t="inlineStr">
@@ -48235,9 +50839,36 @@
           <t>A</t>
         </is>
       </c>
+      <c r="DL114" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DM114" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN114" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="DO114" t="inlineStr">
+        <is>
+          <t>A⁺</t>
+        </is>
+      </c>
+      <c r="DP114" t="inlineStr"/>
+      <c r="DQ114" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DR114" t="inlineStr"/>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n">
+      <c r="A115" t="n">
         <v>411</v>
       </c>
       <c r="B115" t="inlineStr">
@@ -48650,9 +51281,20 @@
         </is>
       </c>
       <c r="DK115" t="inlineStr"/>
+      <c r="DL115" t="inlineStr"/>
+      <c r="DM115" t="inlineStr"/>
+      <c r="DN115" t="inlineStr"/>
+      <c r="DO115" t="inlineStr"/>
+      <c r="DP115" t="inlineStr">
+        <is>
+          <t>35.16</t>
+        </is>
+      </c>
+      <c r="DQ115" t="inlineStr"/>
+      <c r="DR115" t="inlineStr"/>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n">
+      <c r="A116" t="n">
         <v>413</v>
       </c>
       <c r="B116" t="inlineStr">
@@ -49069,9 +51711,40 @@
           <t>C+</t>
         </is>
       </c>
+      <c r="DL116" t="inlineStr">
+        <is>
+          <t>D+</t>
+        </is>
+      </c>
+      <c r="DM116" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN116" t="inlineStr">
+        <is>
+          <t>BBB+</t>
+        </is>
+      </c>
+      <c r="DO116" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DP116" t="inlineStr"/>
+      <c r="DQ116" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+      <c r="DR116" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n">
+      <c r="A117" t="n">
         <v>414</v>
       </c>
       <c r="B117" t="inlineStr">
@@ -49488,9 +52161,40 @@
           <t>B+</t>
         </is>
       </c>
+      <c r="DL117" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="DM117" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN117" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="DO117" t="inlineStr">
+        <is>
+          <t>A⁺</t>
+        </is>
+      </c>
+      <c r="DP117" t="inlineStr"/>
+      <c r="DQ117" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DR117" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n">
+      <c r="A118" t="n">
         <v>425</v>
       </c>
       <c r="B118" t="inlineStr">
@@ -49903,9 +52607,32 @@
         </is>
       </c>
       <c r="DK118" t="inlineStr"/>
+      <c r="DL118" t="inlineStr"/>
+      <c r="DM118" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN118" t="inlineStr"/>
+      <c r="DO118" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP118" t="inlineStr">
+        <is>
+          <t>13.55</t>
+        </is>
+      </c>
+      <c r="DQ118" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DR118" t="inlineStr"/>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n">
+      <c r="A119" t="n">
         <v>426</v>
       </c>
       <c r="B119" t="inlineStr">
@@ -50322,9 +53049,32 @@
           <t>D</t>
         </is>
       </c>
+      <c r="DL119" t="inlineStr"/>
+      <c r="DM119" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN119" t="inlineStr">
+        <is>
+          <t>AA-</t>
+        </is>
+      </c>
+      <c r="DO119" t="inlineStr">
+        <is>
+          <t>A⁺</t>
+        </is>
+      </c>
+      <c r="DP119" t="inlineStr"/>
+      <c r="DQ119" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DR119" t="inlineStr"/>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n">
+      <c r="A120" t="n">
         <v>427</v>
       </c>
       <c r="B120" t="inlineStr">
@@ -50741,9 +53491,28 @@
           <t>A</t>
         </is>
       </c>
+      <c r="DL120" t="inlineStr"/>
+      <c r="DM120" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DN120" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DO120" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP120" t="inlineStr"/>
+      <c r="DQ120" t="inlineStr"/>
+      <c r="DR120" t="inlineStr"/>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="n">
+      <c r="A121" t="n">
         <v>432</v>
       </c>
       <c r="B121" t="inlineStr">
@@ -51160,9 +53929,28 @@
           <t>D</t>
         </is>
       </c>
+      <c r="DL121" t="inlineStr"/>
+      <c r="DM121" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN121" t="inlineStr">
+        <is>
+          <t>BBB-</t>
+        </is>
+      </c>
+      <c r="DO121" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP121" t="inlineStr"/>
+      <c r="DQ121" t="inlineStr"/>
+      <c r="DR121" t="inlineStr"/>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="n">
+      <c r="A122" t="n">
         <v>434</v>
       </c>
       <c r="B122" t="inlineStr">
@@ -51579,9 +54367,28 @@
           <t>C-</t>
         </is>
       </c>
+      <c r="DL122" t="inlineStr"/>
+      <c r="DM122" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="DN122" t="inlineStr">
+        <is>
+          <t>BB-</t>
+        </is>
+      </c>
+      <c r="DO122" t="inlineStr">
+        <is>
+          <t>BBB-</t>
+        </is>
+      </c>
+      <c r="DP122" t="inlineStr"/>
+      <c r="DQ122" t="inlineStr"/>
+      <c r="DR122" t="inlineStr"/>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="n">
+      <c r="A123" t="n">
         <v>435</v>
       </c>
       <c r="B123" t="inlineStr">
@@ -51998,9 +54805,28 @@
           <t>A</t>
         </is>
       </c>
+      <c r="DL123" t="inlineStr"/>
+      <c r="DM123" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN123" t="inlineStr">
+        <is>
+          <t>AA-</t>
+        </is>
+      </c>
+      <c r="DO123" t="inlineStr">
+        <is>
+          <t>BBB⁺</t>
+        </is>
+      </c>
+      <c r="DP123" t="inlineStr"/>
+      <c r="DQ123" t="inlineStr"/>
+      <c r="DR123" t="inlineStr"/>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="n">
+      <c r="A124" t="n">
         <v>436</v>
       </c>
       <c r="B124" t="inlineStr">
@@ -52417,9 +55243,28 @@
           <t>A</t>
         </is>
       </c>
+      <c r="DL124" t="inlineStr"/>
+      <c r="DM124" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="DN124" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DO124" t="inlineStr">
+        <is>
+          <t>BBB-</t>
+        </is>
+      </c>
+      <c r="DP124" t="inlineStr"/>
+      <c r="DQ124" t="inlineStr"/>
+      <c r="DR124" t="inlineStr"/>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="n">
+      <c r="A125" t="n">
         <v>437</v>
       </c>
       <c r="B125" t="inlineStr">
@@ -52836,9 +55681,28 @@
           <t>B+</t>
         </is>
       </c>
+      <c r="DL125" t="inlineStr"/>
+      <c r="DM125" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="DN125" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DO125" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP125" t="inlineStr"/>
+      <c r="DQ125" t="inlineStr"/>
+      <c r="DR125" t="inlineStr"/>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="n">
+      <c r="A126" t="n">
         <v>438</v>
       </c>
       <c r="B126" t="inlineStr">
@@ -53255,9 +56119,28 @@
           <t>D-</t>
         </is>
       </c>
+      <c r="DL126" t="inlineStr"/>
+      <c r="DM126" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN126" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DO126" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DP126" t="inlineStr"/>
+      <c r="DQ126" t="inlineStr"/>
+      <c r="DR126" t="inlineStr"/>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n">
+      <c r="A127" t="n">
         <v>442</v>
       </c>
       <c r="B127" t="inlineStr">
@@ -53674,9 +56557,36 @@
           <t>A-</t>
         </is>
       </c>
+      <c r="DL127" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DM127" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="DN127" t="inlineStr">
+        <is>
+          <t>BBB+</t>
+        </is>
+      </c>
+      <c r="DO127" t="inlineStr">
+        <is>
+          <t>BBB-</t>
+        </is>
+      </c>
+      <c r="DP127" t="inlineStr"/>
+      <c r="DQ127" t="inlineStr"/>
+      <c r="DR127" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="n">
+      <c r="A128" t="n">
         <v>451</v>
       </c>
       <c r="B128" t="inlineStr">
@@ -54093,9 +57003,36 @@
           <t>A</t>
         </is>
       </c>
+      <c r="DL128" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DM128" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN128" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="DO128" t="inlineStr">
+        <is>
+          <t>AA-</t>
+        </is>
+      </c>
+      <c r="DP128" t="inlineStr"/>
+      <c r="DQ128" t="inlineStr"/>
+      <c r="DR128" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="n">
+      <c r="A129" t="n">
         <v>452</v>
       </c>
       <c r="B129" t="inlineStr">
@@ -54508,9 +57445,32 @@
         </is>
       </c>
       <c r="DK129" t="inlineStr"/>
+      <c r="DL129" t="inlineStr"/>
+      <c r="DM129" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN129" t="inlineStr"/>
+      <c r="DO129" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DP129" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="DQ129" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DR129" t="inlineStr"/>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="n">
+      <c r="A130" t="n">
         <v>453</v>
       </c>
       <c r="B130" t="inlineStr">
@@ -54923,9 +57883,32 @@
         </is>
       </c>
       <c r="DK130" t="inlineStr"/>
+      <c r="DL130" t="inlineStr"/>
+      <c r="DM130" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN130" t="inlineStr"/>
+      <c r="DO130" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DP130" t="inlineStr">
+        <is>
+          <t>21.43</t>
+        </is>
+      </c>
+      <c r="DQ130" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DR130" t="inlineStr"/>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="n">
+      <c r="A131" t="n">
         <v>455</v>
       </c>
       <c r="B131" t="inlineStr">
@@ -55338,9 +58321,24 @@
         </is>
       </c>
       <c r="DK131" t="inlineStr"/>
+      <c r="DL131" t="inlineStr"/>
+      <c r="DM131" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN131" t="inlineStr"/>
+      <c r="DO131" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DP131" t="inlineStr"/>
+      <c r="DQ131" t="inlineStr"/>
+      <c r="DR131" t="inlineStr"/>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n">
+      <c r="A132" t="n">
         <v>459</v>
       </c>
       <c r="B132" t="inlineStr">
@@ -55753,9 +58751,36 @@
         </is>
       </c>
       <c r="DK132" t="inlineStr"/>
+      <c r="DL132" t="inlineStr"/>
+      <c r="DM132" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN132" t="inlineStr"/>
+      <c r="DO132" t="inlineStr">
+        <is>
+          <t>BBB-</t>
+        </is>
+      </c>
+      <c r="DP132" t="inlineStr">
+        <is>
+          <t>19.75</t>
+        </is>
+      </c>
+      <c r="DQ132" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DR132" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="n">
+      <c r="A133" t="n">
         <v>460</v>
       </c>
       <c r="B133" t="inlineStr">
@@ -56168,9 +59193,20 @@
         </is>
       </c>
       <c r="DK133" t="inlineStr"/>
+      <c r="DL133" t="inlineStr"/>
+      <c r="DM133" t="inlineStr"/>
+      <c r="DN133" t="inlineStr"/>
+      <c r="DO133" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP133" t="inlineStr"/>
+      <c r="DQ133" t="inlineStr"/>
+      <c r="DR133" t="inlineStr"/>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="n">
+      <c r="A134" t="n">
         <v>461</v>
       </c>
       <c r="B134" t="inlineStr">
@@ -56583,9 +59619,24 @@
         </is>
       </c>
       <c r="DK134" t="inlineStr"/>
+      <c r="DL134" t="inlineStr"/>
+      <c r="DM134" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN134" t="inlineStr"/>
+      <c r="DO134" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP134" t="inlineStr"/>
+      <c r="DQ134" t="inlineStr"/>
+      <c r="DR134" t="inlineStr"/>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="n">
+      <c r="A135" t="n">
         <v>463</v>
       </c>
       <c r="B135" t="inlineStr">
@@ -56998,9 +60049,32 @@
         </is>
       </c>
       <c r="DK135" t="inlineStr"/>
+      <c r="DL135" t="inlineStr"/>
+      <c r="DM135" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN135" t="inlineStr"/>
+      <c r="DO135" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DP135" t="inlineStr">
+        <is>
+          <t>22.31</t>
+        </is>
+      </c>
+      <c r="DQ135" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DR135" t="inlineStr"/>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="n">
+      <c r="A136" t="n">
         <v>464</v>
       </c>
       <c r="B136" t="inlineStr">
@@ -57417,9 +60491,40 @@
           <t>A+</t>
         </is>
       </c>
+      <c r="DL136" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DM136" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN136" t="inlineStr">
+        <is>
+          <t>AA+</t>
+        </is>
+      </c>
+      <c r="DO136" t="inlineStr">
+        <is>
+          <t>AA-</t>
+        </is>
+      </c>
+      <c r="DP136" t="inlineStr"/>
+      <c r="DQ136" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DR136" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="n">
+      <c r="A137" t="n">
         <v>465</v>
       </c>
       <c r="B137" t="inlineStr">
@@ -57832,9 +60937,32 @@
         </is>
       </c>
       <c r="DK137" t="inlineStr"/>
+      <c r="DL137" t="inlineStr"/>
+      <c r="DM137" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN137" t="inlineStr"/>
+      <c r="DO137" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DP137" t="inlineStr">
+        <is>
+          <t>30.17</t>
+        </is>
+      </c>
+      <c r="DQ137" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DR137" t="inlineStr"/>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="n">
+      <c r="A138" t="n">
         <v>466</v>
       </c>
       <c r="B138" t="inlineStr">
@@ -58251,9 +61379,32 @@
           <t>A+</t>
         </is>
       </c>
+      <c r="DL138" t="inlineStr"/>
+      <c r="DM138" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN138" t="inlineStr">
+        <is>
+          <t>AA+</t>
+        </is>
+      </c>
+      <c r="DO138" t="inlineStr">
+        <is>
+          <t>A⁺</t>
+        </is>
+      </c>
+      <c r="DP138" t="inlineStr"/>
+      <c r="DQ138" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DR138" t="inlineStr"/>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="n">
+      <c r="A139" t="n">
         <v>467</v>
       </c>
       <c r="B139" t="inlineStr">
@@ -58670,9 +61821,40 @@
           <t>A+</t>
         </is>
       </c>
+      <c r="DL139" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="DM139" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN139" t="inlineStr">
+        <is>
+          <t>AA-</t>
+        </is>
+      </c>
+      <c r="DO139" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DP139" t="inlineStr"/>
+      <c r="DQ139" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DR139" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="n">
+      <c r="A140" t="n">
         <v>469</v>
       </c>
       <c r="B140" t="inlineStr">
@@ -59089,9 +62271,32 @@
           <t>A+</t>
         </is>
       </c>
+      <c r="DL140" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="DM140" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN140" t="inlineStr">
+        <is>
+          <t>AA+</t>
+        </is>
+      </c>
+      <c r="DO140" t="inlineStr">
+        <is>
+          <t>AA-</t>
+        </is>
+      </c>
+      <c r="DP140" t="inlineStr"/>
+      <c r="DQ140" t="inlineStr"/>
+      <c r="DR140" t="inlineStr"/>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="n">
+      <c r="A141" t="n">
         <v>470</v>
       </c>
       <c r="B141" t="inlineStr">
@@ -59508,9 +62713,40 @@
           <t>A+</t>
         </is>
       </c>
+      <c r="DL141" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="DM141" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN141" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="DO141" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="DP141" t="inlineStr"/>
+      <c r="DQ141" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DR141" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="n">
+      <c r="A142" t="n">
         <v>471</v>
       </c>
       <c r="B142" t="inlineStr">
@@ -59927,9 +63163,32 @@
           <t>A-</t>
         </is>
       </c>
+      <c r="DL142" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="DM142" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN142" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="DO142" t="inlineStr">
+        <is>
+          <t>BBB⁺</t>
+        </is>
+      </c>
+      <c r="DP142" t="inlineStr"/>
+      <c r="DQ142" t="inlineStr"/>
+      <c r="DR142" t="inlineStr"/>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="n">
+      <c r="A143" t="n">
         <v>472</v>
       </c>
       <c r="B143" t="inlineStr">
@@ -60346,9 +63605,36 @@
           <t>A+</t>
         </is>
       </c>
+      <c r="DL143" t="inlineStr"/>
+      <c r="DM143" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DN143" t="inlineStr">
+        <is>
+          <t>BB-</t>
+        </is>
+      </c>
+      <c r="DO143" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP143" t="inlineStr">
+        <is>
+          <t>31.36</t>
+        </is>
+      </c>
+      <c r="DQ143" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="DR143" t="inlineStr"/>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="n">
+      <c r="A144" t="n">
         <v>474</v>
       </c>
       <c r="B144" t="inlineStr">
@@ -60765,9 +64051,44 @@
           <t>A+</t>
         </is>
       </c>
+      <c r="DL144" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="DM144" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN144" t="inlineStr">
+        <is>
+          <t>AA+</t>
+        </is>
+      </c>
+      <c r="DO144" t="inlineStr">
+        <is>
+          <t>A⁺</t>
+        </is>
+      </c>
+      <c r="DP144" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="DQ144" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DR144" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="n">
+      <c r="A145" t="n">
         <v>475</v>
       </c>
       <c r="B145" t="inlineStr">
@@ -61184,9 +64505,40 @@
           <t>A+</t>
         </is>
       </c>
+      <c r="DL145" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DM145" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN145" t="inlineStr">
+        <is>
+          <t>AA-</t>
+        </is>
+      </c>
+      <c r="DO145" t="inlineStr">
+        <is>
+          <t>AA-</t>
+        </is>
+      </c>
+      <c r="DP145" t="inlineStr"/>
+      <c r="DQ145" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DR145" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="n">
+      <c r="A146" t="n">
         <v>476</v>
       </c>
       <c r="B146" t="inlineStr">
@@ -61603,9 +64955,40 @@
           <t>A-</t>
         </is>
       </c>
+      <c r="DL146" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="DM146" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN146" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DO146" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DP146" t="inlineStr"/>
+      <c r="DQ146" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DR146" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="n">
+      <c r="A147" t="n">
         <v>477</v>
       </c>
       <c r="B147" t="inlineStr">
@@ -62022,9 +65405,32 @@
           <t>A+</t>
         </is>
       </c>
+      <c r="DL147" t="inlineStr"/>
+      <c r="DM147" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN147" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="DO147" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DP147" t="inlineStr"/>
+      <c r="DQ147" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DR147" t="inlineStr"/>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="n">
+      <c r="A148" t="n">
         <v>478</v>
       </c>
       <c r="B148" t="inlineStr">
@@ -62441,9 +65847,28 @@
           <t>A+</t>
         </is>
       </c>
+      <c r="DL148" t="inlineStr"/>
+      <c r="DM148" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="DN148" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="DO148" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DP148" t="inlineStr"/>
+      <c r="DQ148" t="inlineStr"/>
+      <c r="DR148" t="inlineStr"/>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="n">
+      <c r="A149" t="n">
         <v>480</v>
       </c>
       <c r="B149" t="inlineStr">
@@ -62856,9 +66281,32 @@
         </is>
       </c>
       <c r="DK149" t="inlineStr"/>
+      <c r="DL149" t="inlineStr"/>
+      <c r="DM149" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN149" t="inlineStr"/>
+      <c r="DO149" t="inlineStr">
+        <is>
+          <t>BBB-</t>
+        </is>
+      </c>
+      <c r="DP149" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="DQ149" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DR149" t="inlineStr"/>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="n">
+      <c r="A150" t="n">
         <v>481</v>
       </c>
       <c r="B150" t="inlineStr">
@@ -63275,9 +66723,36 @@
           <t>A</t>
         </is>
       </c>
+      <c r="DL150" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="DM150" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN150" t="inlineStr">
+        <is>
+          <t>AA-</t>
+        </is>
+      </c>
+      <c r="DO150" t="inlineStr">
+        <is>
+          <t>A⁺</t>
+        </is>
+      </c>
+      <c r="DP150" t="inlineStr"/>
+      <c r="DQ150" t="inlineStr"/>
+      <c r="DR150" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="n">
+      <c r="A151" t="n">
         <v>482</v>
       </c>
       <c r="B151" t="inlineStr">
@@ -63690,9 +67165,32 @@
         </is>
       </c>
       <c r="DK151" t="inlineStr"/>
+      <c r="DL151" t="inlineStr"/>
+      <c r="DM151" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN151" t="inlineStr"/>
+      <c r="DO151" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP151" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="DQ151" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DR151" t="inlineStr"/>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="n">
+      <c r="A152" t="n">
         <v>483</v>
       </c>
       <c r="B152" t="inlineStr">
@@ -64109,9 +67607,40 @@
           <t>A-</t>
         </is>
       </c>
+      <c r="DL152" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DM152" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN152" t="inlineStr">
+        <is>
+          <t>AA-</t>
+        </is>
+      </c>
+      <c r="DO152" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DP152" t="inlineStr"/>
+      <c r="DQ152" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DR152" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="n">
+      <c r="A153" t="n">
         <v>484</v>
       </c>
       <c r="B153" t="inlineStr">
@@ -64528,9 +68057,40 @@
           <t>B+</t>
         </is>
       </c>
+      <c r="DL153" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="DM153" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN153" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DO153" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DP153" t="inlineStr"/>
+      <c r="DQ153" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DR153" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="n">
+      <c r="A154" t="n">
         <v>485</v>
       </c>
       <c r="B154" t="inlineStr">
@@ -64947,9 +68507,36 @@
           <t>A+</t>
         </is>
       </c>
+      <c r="DL154" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="DM154" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN154" t="inlineStr">
+        <is>
+          <t>BBB+</t>
+        </is>
+      </c>
+      <c r="DO154" t="inlineStr">
+        <is>
+          <t>BBB⁺</t>
+        </is>
+      </c>
+      <c r="DP154" t="inlineStr"/>
+      <c r="DQ154" t="inlineStr"/>
+      <c r="DR154" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="n">
+      <c r="A155" t="n">
         <v>486</v>
       </c>
       <c r="B155" t="inlineStr">
@@ -65366,9 +68953,36 @@
           <t>A+</t>
         </is>
       </c>
+      <c r="DL155" t="inlineStr">
+        <is>
+          <t>D+</t>
+        </is>
+      </c>
+      <c r="DM155" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN155" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="DO155" t="inlineStr">
+        <is>
+          <t>A⁺</t>
+        </is>
+      </c>
+      <c r="DP155" t="inlineStr"/>
+      <c r="DQ155" t="inlineStr"/>
+      <c r="DR155" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="n">
+      <c r="A156" t="n">
         <v>493</v>
       </c>
       <c r="B156" t="inlineStr">
@@ -65785,9 +69399,36 @@
           <t>A-</t>
         </is>
       </c>
+      <c r="DL156" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="DM156" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DN156" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DO156" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP156" t="inlineStr"/>
+      <c r="DQ156" t="inlineStr"/>
+      <c r="DR156" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="n">
+      <c r="A157" t="n">
         <v>495</v>
       </c>
       <c r="B157" t="inlineStr">
@@ -66204,9 +69845,36 @@
           <t>C+</t>
         </is>
       </c>
+      <c r="DL157" t="inlineStr"/>
+      <c r="DM157" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN157" t="inlineStr">
+        <is>
+          <t>AA-</t>
+        </is>
+      </c>
+      <c r="DO157" t="inlineStr">
+        <is>
+          <t>AA-</t>
+        </is>
+      </c>
+      <c r="DP157" t="inlineStr"/>
+      <c r="DQ157" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DR157" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="n">
+      <c r="A158" t="n">
         <v>513</v>
       </c>
       <c r="B158" t="inlineStr">
@@ -66623,9 +70291,44 @@
           <t>C+</t>
         </is>
       </c>
+      <c r="DL158" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="DM158" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN158" t="inlineStr">
+        <is>
+          <t>AA-</t>
+        </is>
+      </c>
+      <c r="DO158" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DP158" t="inlineStr">
+        <is>
+          <t>46.14</t>
+        </is>
+      </c>
+      <c r="DQ158" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DR158" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="n">
+      <c r="A159" t="n">
         <v>555</v>
       </c>
       <c r="B159" t="inlineStr">
@@ -67038,9 +70741,32 @@
         </is>
       </c>
       <c r="DK159" t="inlineStr"/>
+      <c r="DL159" t="inlineStr"/>
+      <c r="DM159" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN159" t="inlineStr"/>
+      <c r="DO159" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP159" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="DQ159" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DR159" t="inlineStr"/>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="n">
+      <c r="A160" t="n">
         <v>556</v>
       </c>
       <c r="B160" t="inlineStr">
@@ -67457,9 +71183,40 @@
           <t>B</t>
         </is>
       </c>
+      <c r="DL160" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="DM160" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN160" t="inlineStr">
+        <is>
+          <t>AA-</t>
+        </is>
+      </c>
+      <c r="DO160" t="inlineStr">
+        <is>
+          <t>A⁺</t>
+        </is>
+      </c>
+      <c r="DP160" t="inlineStr"/>
+      <c r="DQ160" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DR160" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="n">
+      <c r="A161" t="n">
         <v>570</v>
       </c>
       <c r="B161" t="inlineStr">
@@ -67876,9 +71633,28 @@
           <t>D-</t>
         </is>
       </c>
+      <c r="DL161" t="inlineStr"/>
+      <c r="DM161" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="DN161" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DO161" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP161" t="inlineStr"/>
+      <c r="DQ161" t="inlineStr"/>
+      <c r="DR161" t="inlineStr"/>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="n">
+      <c r="A162" t="n">
         <v>571</v>
       </c>
       <c r="B162" t="inlineStr">
@@ -68295,9 +72071,28 @@
           <t>C</t>
         </is>
       </c>
+      <c r="DL162" t="inlineStr"/>
+      <c r="DM162" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN162" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="DO162" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DP162" t="inlineStr"/>
+      <c r="DQ162" t="inlineStr"/>
+      <c r="DR162" t="inlineStr"/>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="n">
+      <c r="A163" t="n">
         <v>572</v>
       </c>
       <c r="B163" t="inlineStr">
@@ -68714,9 +72509,28 @@
           <t>C</t>
         </is>
       </c>
+      <c r="DL163" t="inlineStr"/>
+      <c r="DM163" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DN163" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="DO163" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DP163" t="inlineStr"/>
+      <c r="DQ163" t="inlineStr"/>
+      <c r="DR163" t="inlineStr"/>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="n">
+      <c r="A164" t="n">
         <v>573</v>
       </c>
       <c r="B164" t="inlineStr">
@@ -69133,9 +72947,28 @@
           <t>D+</t>
         </is>
       </c>
+      <c r="DL164" t="inlineStr"/>
+      <c r="DM164" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="DN164" t="inlineStr">
+        <is>
+          <t>BB-</t>
+        </is>
+      </c>
+      <c r="DO164" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP164" t="inlineStr"/>
+      <c r="DQ164" t="inlineStr"/>
+      <c r="DR164" t="inlineStr"/>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="n">
+      <c r="A165" t="n">
         <v>574</v>
       </c>
       <c r="B165" t="inlineStr">
@@ -69552,9 +73385,28 @@
           <t>D-</t>
         </is>
       </c>
+      <c r="DL165" t="inlineStr"/>
+      <c r="DM165" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN165" t="inlineStr">
+        <is>
+          <t>AA+</t>
+        </is>
+      </c>
+      <c r="DO165" t="inlineStr">
+        <is>
+          <t>AA-</t>
+        </is>
+      </c>
+      <c r="DP165" t="inlineStr"/>
+      <c r="DQ165" t="inlineStr"/>
+      <c r="DR165" t="inlineStr"/>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="n">
+      <c r="A166" t="n">
         <v>575</v>
       </c>
       <c r="B166" t="inlineStr">
@@ -69971,9 +73823,28 @@
           <t>D-</t>
         </is>
       </c>
+      <c r="DL166" t="inlineStr"/>
+      <c r="DM166" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN166" t="inlineStr">
+        <is>
+          <t>BBB-</t>
+        </is>
+      </c>
+      <c r="DO166" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DP166" t="inlineStr"/>
+      <c r="DQ166" t="inlineStr"/>
+      <c r="DR166" t="inlineStr"/>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="n">
+      <c r="A167" t="n">
         <v>581</v>
       </c>
       <c r="B167" t="inlineStr">
@@ -70390,9 +74261,28 @@
           <t>B-</t>
         </is>
       </c>
+      <c r="DL167" t="inlineStr"/>
+      <c r="DM167" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="DN167" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DO167" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP167" t="inlineStr"/>
+      <c r="DQ167" t="inlineStr"/>
+      <c r="DR167" t="inlineStr"/>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="n">
+      <c r="A168" t="n">
         <v>591</v>
       </c>
       <c r="B168" t="inlineStr">
@@ -70805,9 +74695,32 @@
         </is>
       </c>
       <c r="DK168" t="inlineStr"/>
+      <c r="DL168" t="inlineStr"/>
+      <c r="DM168" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN168" t="inlineStr"/>
+      <c r="DO168" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP168" t="inlineStr">
+        <is>
+          <t>22.95</t>
+        </is>
+      </c>
+      <c r="DQ168" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DR168" t="inlineStr"/>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="n">
+      <c r="A169" t="n">
         <v>592</v>
       </c>
       <c r="B169" t="inlineStr">
@@ -71224,9 +75137,32 @@
           <t>B+</t>
         </is>
       </c>
+      <c r="DL169" t="inlineStr"/>
+      <c r="DM169" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN169" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DO169" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DP169" t="inlineStr"/>
+      <c r="DQ169" t="inlineStr"/>
+      <c r="DR169" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="n">
+      <c r="A170" t="n">
         <v>593</v>
       </c>
       <c r="B170" t="inlineStr">
@@ -71639,9 +75575,32 @@
         </is>
       </c>
       <c r="DK170" t="inlineStr"/>
+      <c r="DL170" t="inlineStr"/>
+      <c r="DM170" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN170" t="inlineStr"/>
+      <c r="DO170" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DP170" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="DQ170" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DR170" t="inlineStr"/>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="n">
+      <c r="A171" t="n">
         <v>595</v>
       </c>
       <c r="B171" t="inlineStr">
@@ -72054,9 +76013,32 @@
         </is>
       </c>
       <c r="DK171" t="inlineStr"/>
+      <c r="DL171" t="inlineStr"/>
+      <c r="DM171" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN171" t="inlineStr"/>
+      <c r="DO171" t="inlineStr">
+        <is>
+          <t>BBB-</t>
+        </is>
+      </c>
+      <c r="DP171" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="DQ171" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DR171" t="inlineStr"/>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="n">
+      <c r="A172" t="n">
         <v>599</v>
       </c>
       <c r="B172" t="inlineStr">
@@ -72469,9 +76451,32 @@
         </is>
       </c>
       <c r="DK172" t="inlineStr"/>
+      <c r="DL172" t="inlineStr"/>
+      <c r="DM172" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN172" t="inlineStr"/>
+      <c r="DO172" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP172" t="inlineStr">
+        <is>
+          <t>17.11</t>
+        </is>
+      </c>
+      <c r="DQ172" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DR172" t="inlineStr"/>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="n">
+      <c r="A173" t="n">
         <v>600</v>
       </c>
       <c r="B173" t="inlineStr">
@@ -72884,9 +76889,20 @@
         </is>
       </c>
       <c r="DK173" t="inlineStr"/>
+      <c r="DL173" t="inlineStr"/>
+      <c r="DM173" t="inlineStr"/>
+      <c r="DN173" t="inlineStr"/>
+      <c r="DO173" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP173" t="inlineStr"/>
+      <c r="DQ173" t="inlineStr"/>
+      <c r="DR173" t="inlineStr"/>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="n">
+      <c r="A174" t="n">
         <v>602</v>
       </c>
       <c r="B174" t="inlineStr">
@@ -73299,9 +77315,32 @@
         </is>
       </c>
       <c r="DK174" t="inlineStr"/>
+      <c r="DL174" t="inlineStr"/>
+      <c r="DM174" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN174" t="inlineStr"/>
+      <c r="DO174" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DP174" t="inlineStr">
+        <is>
+          <t>17.7</t>
+        </is>
+      </c>
+      <c r="DQ174" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DR174" t="inlineStr"/>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="n">
+      <c r="A175" t="n">
         <v>604</v>
       </c>
       <c r="B175" t="inlineStr">
@@ -73714,9 +77753,28 @@
         </is>
       </c>
       <c r="DK175" t="inlineStr"/>
+      <c r="DL175" t="inlineStr"/>
+      <c r="DM175" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DN175" t="inlineStr"/>
+      <c r="DO175" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DP175" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="DQ175" t="inlineStr"/>
+      <c r="DR175" t="inlineStr"/>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="n">
+      <c r="A176" t="n">
         <v>605</v>
       </c>
       <c r="B176" t="inlineStr">
@@ -74129,9 +78187,28 @@
         </is>
       </c>
       <c r="DK176" t="inlineStr"/>
+      <c r="DL176" t="inlineStr"/>
+      <c r="DM176" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN176" t="inlineStr"/>
+      <c r="DO176" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP176" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="DQ176" t="inlineStr"/>
+      <c r="DR176" t="inlineStr"/>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="n">
+      <c r="A177" t="n">
         <v>606</v>
       </c>
       <c r="B177" t="inlineStr">
@@ -74544,9 +78621,32 @@
         </is>
       </c>
       <c r="DK177" t="inlineStr"/>
+      <c r="DL177" t="inlineStr"/>
+      <c r="DM177" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN177" t="inlineStr"/>
+      <c r="DO177" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP177" t="inlineStr">
+        <is>
+          <t>21.75</t>
+        </is>
+      </c>
+      <c r="DQ177" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DR177" t="inlineStr"/>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="n">
+      <c r="A178" t="n">
         <v>607</v>
       </c>
       <c r="B178" t="inlineStr">
@@ -74959,9 +79059,28 @@
         </is>
       </c>
       <c r="DK178" t="inlineStr"/>
+      <c r="DL178" t="inlineStr"/>
+      <c r="DM178" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN178" t="inlineStr"/>
+      <c r="DO178" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP178" t="inlineStr">
+        <is>
+          <t>20.61</t>
+        </is>
+      </c>
+      <c r="DQ178" t="inlineStr"/>
+      <c r="DR178" t="inlineStr"/>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="n">
+      <c r="A179" t="n">
         <v>609</v>
       </c>
       <c r="B179" t="inlineStr">
@@ -75374,9 +79493,28 @@
         </is>
       </c>
       <c r="DK179" t="inlineStr"/>
+      <c r="DL179" t="inlineStr"/>
+      <c r="DM179" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN179" t="inlineStr"/>
+      <c r="DO179" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP179" t="inlineStr"/>
+      <c r="DQ179" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DR179" t="inlineStr"/>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="n">
+      <c r="A180" t="n">
         <v>610</v>
       </c>
       <c r="B180" t="inlineStr">
@@ -75789,9 +79927,28 @@
         </is>
       </c>
       <c r="DK180" t="inlineStr"/>
+      <c r="DL180" t="inlineStr"/>
+      <c r="DM180" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN180" t="inlineStr"/>
+      <c r="DO180" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP180" t="inlineStr">
+        <is>
+          <t>22.42</t>
+        </is>
+      </c>
+      <c r="DQ180" t="inlineStr"/>
+      <c r="DR180" t="inlineStr"/>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="n">
+      <c r="A181" t="n">
         <v>611</v>
       </c>
       <c r="B181" t="inlineStr">
@@ -76204,9 +80361,16 @@
         </is>
       </c>
       <c r="DK181" t="inlineStr"/>
+      <c r="DL181" t="inlineStr"/>
+      <c r="DM181" t="inlineStr"/>
+      <c r="DN181" t="inlineStr"/>
+      <c r="DO181" t="inlineStr"/>
+      <c r="DP181" t="inlineStr"/>
+      <c r="DQ181" t="inlineStr"/>
+      <c r="DR181" t="inlineStr"/>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="n">
+      <c r="A182" t="n">
         <v>612</v>
       </c>
       <c r="B182" t="inlineStr">
@@ -76619,9 +80783,16 @@
         </is>
       </c>
       <c r="DK182" t="inlineStr"/>
+      <c r="DL182" t="inlineStr"/>
+      <c r="DM182" t="inlineStr"/>
+      <c r="DN182" t="inlineStr"/>
+      <c r="DO182" t="inlineStr"/>
+      <c r="DP182" t="inlineStr"/>
+      <c r="DQ182" t="inlineStr"/>
+      <c r="DR182" t="inlineStr"/>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="n">
+      <c r="A183" t="n">
         <v>613</v>
       </c>
       <c r="B183" t="inlineStr">
@@ -77034,9 +81205,32 @@
         </is>
       </c>
       <c r="DK183" t="inlineStr"/>
+      <c r="DL183" t="inlineStr"/>
+      <c r="DM183" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DN183" t="inlineStr"/>
+      <c r="DO183" t="inlineStr">
+        <is>
+          <t>BBB⁺</t>
+        </is>
+      </c>
+      <c r="DP183" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="DQ183" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DR183" t="inlineStr"/>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="n">
+      <c r="A184" t="n">
         <v>615</v>
       </c>
       <c r="B184" t="inlineStr">
@@ -77449,9 +81643,16 @@
         </is>
       </c>
       <c r="DK184" t="inlineStr"/>
+      <c r="DL184" t="inlineStr"/>
+      <c r="DM184" t="inlineStr"/>
+      <c r="DN184" t="inlineStr"/>
+      <c r="DO184" t="inlineStr"/>
+      <c r="DP184" t="inlineStr"/>
+      <c r="DQ184" t="inlineStr"/>
+      <c r="DR184" t="inlineStr"/>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="n">
+      <c r="A185" t="n">
         <v>619</v>
       </c>
       <c r="B185" t="inlineStr">
@@ -77864,9 +82065,16 @@
         </is>
       </c>
       <c r="DK185" t="inlineStr"/>
+      <c r="DL185" t="inlineStr"/>
+      <c r="DM185" t="inlineStr"/>
+      <c r="DN185" t="inlineStr"/>
+      <c r="DO185" t="inlineStr"/>
+      <c r="DP185" t="inlineStr"/>
+      <c r="DQ185" t="inlineStr"/>
+      <c r="DR185" t="inlineStr"/>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="n">
+      <c r="A186" t="n">
         <v>621</v>
       </c>
       <c r="B186" t="inlineStr">
@@ -78279,9 +82487,16 @@
         </is>
       </c>
       <c r="DK186" t="inlineStr"/>
+      <c r="DL186" t="inlineStr"/>
+      <c r="DM186" t="inlineStr"/>
+      <c r="DN186" t="inlineStr"/>
+      <c r="DO186" t="inlineStr"/>
+      <c r="DP186" t="inlineStr"/>
+      <c r="DQ186" t="inlineStr"/>
+      <c r="DR186" t="inlineStr"/>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="n">
+      <c r="A187" t="n">
         <v>622</v>
       </c>
       <c r="B187" t="inlineStr">
@@ -78694,9 +82909,28 @@
         </is>
       </c>
       <c r="DK187" t="inlineStr"/>
+      <c r="DL187" t="inlineStr"/>
+      <c r="DM187" t="inlineStr"/>
+      <c r="DN187" t="inlineStr"/>
+      <c r="DO187" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP187" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="DQ187" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DR187" t="inlineStr"/>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="n">
+      <c r="A188" t="n">
         <v>623</v>
       </c>
       <c r="B188" t="inlineStr">
@@ -79113,9 +83347,28 @@
           <t>A</t>
         </is>
       </c>
+      <c r="DL188" t="inlineStr"/>
+      <c r="DM188" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN188" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="DO188" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DP188" t="inlineStr"/>
+      <c r="DQ188" t="inlineStr"/>
+      <c r="DR188" t="inlineStr"/>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="n">
+      <c r="A189" t="n">
         <v>624</v>
       </c>
       <c r="B189" t="inlineStr">
@@ -79528,9 +83781,16 @@
         </is>
       </c>
       <c r="DK189" t="inlineStr"/>
+      <c r="DL189" t="inlineStr"/>
+      <c r="DM189" t="inlineStr"/>
+      <c r="DN189" t="inlineStr"/>
+      <c r="DO189" t="inlineStr"/>
+      <c r="DP189" t="inlineStr"/>
+      <c r="DQ189" t="inlineStr"/>
+      <c r="DR189" t="inlineStr"/>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="n">
+      <c r="A190" t="n">
         <v>625</v>
       </c>
       <c r="B190" t="inlineStr">
@@ -79943,9 +84203,20 @@
         </is>
       </c>
       <c r="DK190" t="inlineStr"/>
+      <c r="DL190" t="inlineStr"/>
+      <c r="DM190" t="inlineStr"/>
+      <c r="DN190" t="inlineStr"/>
+      <c r="DO190" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP190" t="inlineStr"/>
+      <c r="DQ190" t="inlineStr"/>
+      <c r="DR190" t="inlineStr"/>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="n">
+      <c r="A191" t="n">
         <v>626</v>
       </c>
       <c r="B191" t="inlineStr">
@@ -80362,9 +84633,40 @@
           <t>C</t>
         </is>
       </c>
+      <c r="DL191" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="DM191" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="DN191" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DO191" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP191" t="inlineStr"/>
+      <c r="DQ191" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="DR191" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="n">
+      <c r="A192" t="n">
         <v>627</v>
       </c>
       <c r="B192" t="inlineStr">
@@ -80777,9 +85079,32 @@
         </is>
       </c>
       <c r="DK192" t="inlineStr"/>
+      <c r="DL192" t="inlineStr"/>
+      <c r="DM192" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN192" t="inlineStr"/>
+      <c r="DO192" t="inlineStr">
+        <is>
+          <t>BBB⁺</t>
+        </is>
+      </c>
+      <c r="DP192" t="inlineStr">
+        <is>
+          <t>15.22</t>
+        </is>
+      </c>
+      <c r="DQ192" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DR192" t="inlineStr"/>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="n">
+      <c r="A193" t="n">
         <v>628</v>
       </c>
       <c r="B193" t="inlineStr">
@@ -81192,9 +85517,16 @@
         </is>
       </c>
       <c r="DK193" t="inlineStr"/>
+      <c r="DL193" t="inlineStr"/>
+      <c r="DM193" t="inlineStr"/>
+      <c r="DN193" t="inlineStr"/>
+      <c r="DO193" t="inlineStr"/>
+      <c r="DP193" t="inlineStr"/>
+      <c r="DQ193" t="inlineStr"/>
+      <c r="DR193" t="inlineStr"/>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="n">
+      <c r="A194" t="n">
         <v>629</v>
       </c>
       <c r="B194" t="inlineStr">
@@ -81607,9 +85939,20 @@
         </is>
       </c>
       <c r="DK194" t="inlineStr"/>
+      <c r="DL194" t="inlineStr"/>
+      <c r="DM194" t="inlineStr"/>
+      <c r="DN194" t="inlineStr"/>
+      <c r="DO194" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DP194" t="inlineStr"/>
+      <c r="DQ194" t="inlineStr"/>
+      <c r="DR194" t="inlineStr"/>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="n">
+      <c r="A195" t="n">
         <v>630</v>
       </c>
       <c r="B195" t="inlineStr">
@@ -82022,9 +86365,24 @@
         </is>
       </c>
       <c r="DK195" t="inlineStr"/>
+      <c r="DL195" t="inlineStr"/>
+      <c r="DM195" t="inlineStr"/>
+      <c r="DN195" t="inlineStr"/>
+      <c r="DO195" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DP195" t="inlineStr"/>
+      <c r="DQ195" t="inlineStr"/>
+      <c r="DR195" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="n">
+      <c r="A196" t="n">
         <v>633</v>
       </c>
       <c r="B196" t="inlineStr">
@@ -82441,9 +86799,40 @@
           <t>A+</t>
         </is>
       </c>
+      <c r="DL196" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DM196" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN196" t="inlineStr">
+        <is>
+          <t>AA-</t>
+        </is>
+      </c>
+      <c r="DO196" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DP196" t="inlineStr"/>
+      <c r="DQ196" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DR196" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="n">
+      <c r="A197" t="n">
         <v>634</v>
       </c>
       <c r="B197" t="inlineStr">
@@ -82856,9 +87245,16 @@
         </is>
       </c>
       <c r="DK197" t="inlineStr"/>
+      <c r="DL197" t="inlineStr"/>
+      <c r="DM197" t="inlineStr"/>
+      <c r="DN197" t="inlineStr"/>
+      <c r="DO197" t="inlineStr"/>
+      <c r="DP197" t="inlineStr"/>
+      <c r="DQ197" t="inlineStr"/>
+      <c r="DR197" t="inlineStr"/>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="n">
+      <c r="A198" t="n">
         <v>638</v>
       </c>
       <c r="B198" t="inlineStr">
@@ -83271,9 +87667,28 @@
         </is>
       </c>
       <c r="DK198" t="inlineStr"/>
+      <c r="DL198" t="inlineStr"/>
+      <c r="DM198" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DN198" t="inlineStr"/>
+      <c r="DO198" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DP198" t="inlineStr">
+        <is>
+          <t>14.62</t>
+        </is>
+      </c>
+      <c r="DQ198" t="inlineStr"/>
+      <c r="DR198" t="inlineStr"/>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="n">
+      <c r="A199" t="n">
         <v>640</v>
       </c>
       <c r="B199" t="inlineStr">
@@ -83690,9 +88105,36 @@
           <t>A</t>
         </is>
       </c>
+      <c r="DL199" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DM199" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN199" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="DO199" t="inlineStr">
+        <is>
+          <t>AA-</t>
+        </is>
+      </c>
+      <c r="DP199" t="inlineStr"/>
+      <c r="DQ199" t="inlineStr"/>
+      <c r="DR199" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="n">
+      <c r="A200" t="n">
         <v>642</v>
       </c>
       <c r="B200" t="inlineStr">
@@ -84109,9 +88551,28 @@
           <t>B-</t>
         </is>
       </c>
+      <c r="DL200" t="inlineStr"/>
+      <c r="DM200" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DN200" t="inlineStr">
+        <is>
+          <t>BBB-</t>
+        </is>
+      </c>
+      <c r="DO200" t="inlineStr">
+        <is>
+          <t>BBB-</t>
+        </is>
+      </c>
+      <c r="DP200" t="inlineStr"/>
+      <c r="DQ200" t="inlineStr"/>
+      <c r="DR200" t="inlineStr"/>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="n">
+      <c r="A201" t="n">
         <v>643</v>
       </c>
       <c r="B201" t="inlineStr">
@@ -84528,9 +88989,28 @@
           <t>D</t>
         </is>
       </c>
+      <c r="DL201" t="inlineStr"/>
+      <c r="DM201" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="DN201" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DO201" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP201" t="inlineStr"/>
+      <c r="DQ201" t="inlineStr"/>
+      <c r="DR201" t="inlineStr"/>
     </row>
     <row r="202">
-      <c r="A202" s="1" t="n">
+      <c r="A202" t="n">
         <v>644</v>
       </c>
       <c r="B202" t="inlineStr">
@@ -84947,9 +89427,28 @@
           <t>C+</t>
         </is>
       </c>
+      <c r="DL202" t="inlineStr"/>
+      <c r="DM202" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DN202" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DO202" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP202" t="inlineStr"/>
+      <c r="DQ202" t="inlineStr"/>
+      <c r="DR202" t="inlineStr"/>
     </row>
     <row r="203">
-      <c r="A203" s="1" t="n">
+      <c r="A203" t="n">
         <v>645</v>
       </c>
       <c r="B203" t="inlineStr">
@@ -85366,9 +89865,28 @@
           <t>D</t>
         </is>
       </c>
+      <c r="DL203" t="inlineStr"/>
+      <c r="DM203" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="DN203" t="inlineStr">
+        <is>
+          <t>BB-</t>
+        </is>
+      </c>
+      <c r="DO203" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP203" t="inlineStr"/>
+      <c r="DQ203" t="inlineStr"/>
+      <c r="DR203" t="inlineStr"/>
     </row>
     <row r="204">
-      <c r="A204" s="1" t="n">
+      <c r="A204" t="n">
         <v>647</v>
       </c>
       <c r="B204" t="inlineStr">
@@ -85785,9 +90303,36 @@
           <t>B+</t>
         </is>
       </c>
+      <c r="DL204" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="DM204" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN204" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="DO204" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DP204" t="inlineStr"/>
+      <c r="DQ204" t="inlineStr"/>
+      <c r="DR204" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="205">
-      <c r="A205" s="1" t="n">
+      <c r="A205" t="n">
         <v>672</v>
       </c>
       <c r="B205" t="inlineStr">
@@ -86204,9 +90749,32 @@
           <t>B+</t>
         </is>
       </c>
+      <c r="DL205" t="inlineStr"/>
+      <c r="DM205" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN205" t="inlineStr">
+        <is>
+          <t>AA-</t>
+        </is>
+      </c>
+      <c r="DO205" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DP205" t="inlineStr"/>
+      <c r="DQ205" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DR205" t="inlineStr"/>
     </row>
     <row r="206">
-      <c r="A206" s="1" t="n">
+      <c r="A206" t="n">
         <v>682</v>
       </c>
       <c r="B206" t="inlineStr">
@@ -86623,9 +91191,40 @@
           <t>A</t>
         </is>
       </c>
+      <c r="DL206" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DM206" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN206" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="DO206" t="inlineStr">
+        <is>
+          <t>AA-</t>
+        </is>
+      </c>
+      <c r="DP206" t="inlineStr">
+        <is>
+          <t>38.25</t>
+        </is>
+      </c>
+      <c r="DQ206" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DR206" t="inlineStr"/>
     </row>
     <row r="207">
-      <c r="A207" s="1" t="n">
+      <c r="A207" t="n">
         <v>687</v>
       </c>
       <c r="B207" t="inlineStr">
@@ -87038,9 +91637,32 @@
         </is>
       </c>
       <c r="DK207" t="inlineStr"/>
+      <c r="DL207" t="inlineStr"/>
+      <c r="DM207" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN207" t="inlineStr"/>
+      <c r="DO207" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DP207" t="inlineStr">
+        <is>
+          <t>25.22</t>
+        </is>
+      </c>
+      <c r="DQ207" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DR207" t="inlineStr"/>
     </row>
     <row r="208">
-      <c r="A208" s="1" t="n">
+      <c r="A208" t="n">
         <v>688</v>
       </c>
       <c r="B208" t="inlineStr">
@@ -87453,9 +92075,24 @@
         </is>
       </c>
       <c r="DK208" t="inlineStr"/>
+      <c r="DL208" t="inlineStr"/>
+      <c r="DM208" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN208" t="inlineStr"/>
+      <c r="DO208" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP208" t="inlineStr"/>
+      <c r="DQ208" t="inlineStr"/>
+      <c r="DR208" t="inlineStr"/>
     </row>
     <row r="209">
-      <c r="A209" s="1" t="n">
+      <c r="A209" t="n">
         <v>690</v>
       </c>
       <c r="B209" t="inlineStr">
@@ -87872,9 +92509,28 @@
           <t>D+</t>
         </is>
       </c>
+      <c r="DL209" t="inlineStr"/>
+      <c r="DM209" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DN209" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DO209" t="inlineStr">
+        <is>
+          <t>BBB-</t>
+        </is>
+      </c>
+      <c r="DP209" t="inlineStr"/>
+      <c r="DQ209" t="inlineStr"/>
+      <c r="DR209" t="inlineStr"/>
     </row>
     <row r="210">
-      <c r="A210" s="1" t="n">
+      <c r="A210" t="n">
         <v>692</v>
       </c>
       <c r="B210" t="inlineStr">
@@ -88287,9 +92943,16 @@
         </is>
       </c>
       <c r="DK210" t="inlineStr"/>
+      <c r="DL210" t="inlineStr"/>
+      <c r="DM210" t="inlineStr"/>
+      <c r="DN210" t="inlineStr"/>
+      <c r="DO210" t="inlineStr"/>
+      <c r="DP210" t="inlineStr"/>
+      <c r="DQ210" t="inlineStr"/>
+      <c r="DR210" t="inlineStr"/>
     </row>
     <row r="211">
-      <c r="A211" s="1" t="n">
+      <c r="A211" t="n">
         <v>693</v>
       </c>
       <c r="B211" t="inlineStr">
@@ -88702,9 +93365,20 @@
         </is>
       </c>
       <c r="DK211" t="inlineStr"/>
+      <c r="DL211" t="inlineStr"/>
+      <c r="DM211" t="inlineStr"/>
+      <c r="DN211" t="inlineStr"/>
+      <c r="DO211" t="inlineStr">
+        <is>
+          <t>BBB-</t>
+        </is>
+      </c>
+      <c r="DP211" t="inlineStr"/>
+      <c r="DQ211" t="inlineStr"/>
+      <c r="DR211" t="inlineStr"/>
     </row>
     <row r="212">
-      <c r="A212" s="1" t="n">
+      <c r="A212" t="n">
         <v>694</v>
       </c>
       <c r="B212" t="inlineStr">
@@ -89117,9 +93791,32 @@
         </is>
       </c>
       <c r="DK212" t="inlineStr"/>
+      <c r="DL212" t="inlineStr"/>
+      <c r="DM212" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN212" t="inlineStr"/>
+      <c r="DO212" t="inlineStr">
+        <is>
+          <t>BBB-</t>
+        </is>
+      </c>
+      <c r="DP212" t="inlineStr">
+        <is>
+          <t>37.4</t>
+        </is>
+      </c>
+      <c r="DQ212" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DR212" t="inlineStr"/>
     </row>
     <row r="213">
-      <c r="A213" s="1" t="n">
+      <c r="A213" t="n">
         <v>695</v>
       </c>
       <c r="B213" t="inlineStr">
@@ -89532,9 +94229,20 @@
         </is>
       </c>
       <c r="DK213" t="inlineStr"/>
+      <c r="DL213" t="inlineStr"/>
+      <c r="DM213" t="inlineStr"/>
+      <c r="DN213" t="inlineStr"/>
+      <c r="DO213" t="inlineStr">
+        <is>
+          <t>BBB-</t>
+        </is>
+      </c>
+      <c r="DP213" t="inlineStr"/>
+      <c r="DQ213" t="inlineStr"/>
+      <c r="DR213" t="inlineStr"/>
     </row>
     <row r="214">
-      <c r="A214" s="1" t="n">
+      <c r="A214" t="n">
         <v>698</v>
       </c>
       <c r="B214" t="inlineStr">
@@ -89947,9 +94655,32 @@
         </is>
       </c>
       <c r="DK214" t="inlineStr"/>
+      <c r="DL214" t="inlineStr"/>
+      <c r="DM214" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN214" t="inlineStr"/>
+      <c r="DO214" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="DP214" t="inlineStr">
+        <is>
+          <t>23.81</t>
+        </is>
+      </c>
+      <c r="DQ214" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DR214" t="inlineStr"/>
     </row>
     <row r="215">
-      <c r="A215" s="1" t="n">
+      <c r="A215" t="n">
         <v>700</v>
       </c>
       <c r="B215" t="inlineStr">
@@ -90366,9 +95097,40 @@
           <t>A</t>
         </is>
       </c>
+      <c r="DL215" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DM215" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="DN215" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="DO215" t="inlineStr">
+        <is>
+          <t>AA-</t>
+        </is>
+      </c>
+      <c r="DP215" t="inlineStr"/>
+      <c r="DQ215" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="DR215" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
     </row>
     <row r="216">
-      <c r="A216" s="1" t="n">
+      <c r="A216" t="n">
         <v>710</v>
       </c>
       <c r="B216" t="inlineStr">
@@ -90781,6 +95543,29 @@
         </is>
       </c>
       <c r="DK216" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="DL216" t="inlineStr"/>
+      <c r="DM216" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="DN216" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="DO216" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DP216" t="inlineStr"/>
+      <c r="DQ216" t="inlineStr"/>
+      <c r="DR216" t="inlineStr">
         <is>
           <t>C</t>
         </is>
